--- a/scr/data/20240905_finish_batch3.xlsx
+++ b/scr/data/20240905_finish_batch3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuduong\Learning\test_cutting_stock_optima\scr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFB6286-B09F-4116-8F8D-32CEE7AABEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739C32DE-E628-4C8A-AA82-59157BD7F78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{97E9A37B-168E-4DB2-9422-951A4AE0FE8F}"/>
   </bookViews>
@@ -2315,8 +2315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BB3797-9B7D-400C-A811-52216776806E}">
   <dimension ref="A1:T554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A547" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C567" sqref="C567"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/scr/data/20240905_finish_batch3.xlsx
+++ b/scr/data/20240905_finish_batch3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuduong\Learning\test_cutting_stock_optima\scr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C611F54-ADDD-4303-8E26-406EE3354A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE54334E-5E72-47F0-8DF4-A10A1DC320B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{97E9A37B-168E-4DB2-9422-951A4AE0FE8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{97E9A37B-168E-4DB2-9422-951A4AE0FE8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4997" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4997" uniqueCount="553">
   <si>
     <t>customer_name</t>
   </si>
@@ -1725,19 +1725,13 @@
     <t>Standard</t>
   </si>
   <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>medium - big</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
-    <t>medium</t>
-  </si>
-  <si>
     <t>medium-big</t>
+  </si>
+  <si>
+    <t>small-medium</t>
   </si>
 </sst>
 </file>
@@ -2313,23 +2307,23 @@
   <dimension ref="A1:S554"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="10"/>
+    <col min="17" max="17" width="31.42578125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -2606,7 +2600,7 @@
         <v>530</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
@@ -2716,7 +2710,7 @@
         <v>530</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
@@ -2771,7 +2765,7 @@
         <v>530</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
@@ -2826,7 +2820,7 @@
         <v>530</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
@@ -2881,7 +2875,7 @@
         <v>530</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
@@ -2991,7 +2985,7 @@
         <v>530</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
@@ -3156,7 +3150,7 @@
         <v>530</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
@@ -3321,7 +3315,7 @@
         <v>530</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
@@ -3486,7 +3480,7 @@
         <v>530</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
@@ -3541,7 +3535,7 @@
         <v>530</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
@@ -3596,7 +3590,7 @@
         <v>530</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
@@ -3651,7 +3645,7 @@
         <v>530</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
@@ -3761,7 +3755,7 @@
         <v>530</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R26" s="15"/>
       <c r="S26" s="15"/>
@@ -3926,7 +3920,7 @@
         <v>530</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
@@ -3981,7 +3975,7 @@
         <v>530</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R30" s="15"/>
       <c r="S30" s="15"/>
@@ -4036,7 +4030,7 @@
         <v>530</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R31" s="15"/>
       <c r="S31" s="15"/>
@@ -4311,7 +4305,7 @@
         <v>530</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
@@ -4366,7 +4360,7 @@
         <v>530</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
@@ -4421,7 +4415,7 @@
         <v>530</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
@@ -4476,7 +4470,7 @@
         <v>530</v>
       </c>
       <c r="Q39" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
@@ -4531,7 +4525,7 @@
         <v>530</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
@@ -4586,7 +4580,7 @@
         <v>530</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R41" s="15">
         <v>246</v>
@@ -4645,7 +4639,7 @@
         <v>530</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R42" s="15">
         <v>343</v>
@@ -4704,7 +4698,7 @@
         <v>530</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R43" s="15">
         <v>222</v>
@@ -4763,7 +4757,7 @@
         <v>530</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R44" s="15">
         <v>308</v>
@@ -4822,7 +4816,7 @@
         <v>530</v>
       </c>
       <c r="Q45" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R45" s="15">
         <v>419</v>
@@ -4881,7 +4875,7 @@
         <v>530</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R46" s="15">
         <v>148</v>
@@ -4940,7 +4934,7 @@
         <v>530</v>
       </c>
       <c r="Q47" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R47" s="15">
         <v>352</v>
@@ -4999,7 +4993,7 @@
         <v>530</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R48" s="15">
         <v>291</v>
@@ -5058,7 +5052,7 @@
         <v>530</v>
       </c>
       <c r="Q49" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R49" s="15">
         <v>377</v>
@@ -5117,7 +5111,7 @@
         <v>530</v>
       </c>
       <c r="Q50" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R50" s="15">
         <v>604</v>
@@ -5176,7 +5170,7 @@
         <v>530</v>
       </c>
       <c r="Q51" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R51" s="15">
         <v>209</v>
@@ -7466,7 +7460,7 @@
         <v>530</v>
       </c>
       <c r="Q91" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R91" s="15"/>
       <c r="S91" s="15"/>
@@ -7521,7 +7515,7 @@
         <v>530</v>
       </c>
       <c r="Q92" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R92" s="15"/>
       <c r="S92" s="15"/>
@@ -7576,7 +7570,7 @@
         <v>530</v>
       </c>
       <c r="Q93" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R93" s="15"/>
       <c r="S93" s="15"/>
@@ -7631,7 +7625,7 @@
         <v>530</v>
       </c>
       <c r="Q94" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R94" s="15"/>
       <c r="S94" s="15"/>
@@ -7686,7 +7680,7 @@
         <v>530</v>
       </c>
       <c r="Q95" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R95" s="15"/>
       <c r="S95" s="15"/>
@@ -7741,7 +7735,7 @@
         <v>530</v>
       </c>
       <c r="Q96" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R96" s="15"/>
       <c r="S96" s="15"/>
@@ -7796,7 +7790,7 @@
         <v>530</v>
       </c>
       <c r="Q97" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R97" s="15"/>
       <c r="S97" s="15"/>
@@ -7851,7 +7845,7 @@
         <v>530</v>
       </c>
       <c r="Q98" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R98" s="15"/>
       <c r="S98" s="15"/>
@@ -7906,7 +7900,7 @@
         <v>530</v>
       </c>
       <c r="Q99" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R99" s="15"/>
       <c r="S99" s="15"/>
@@ -7961,7 +7955,7 @@
         <v>530</v>
       </c>
       <c r="Q100" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R100" s="15"/>
       <c r="S100" s="15"/>
@@ -8016,7 +8010,7 @@
         <v>530</v>
       </c>
       <c r="Q101" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R101" s="15"/>
       <c r="S101" s="15"/>
@@ -8897,7 +8891,7 @@
         <v>532</v>
       </c>
       <c r="Q116" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R116" s="15">
         <v>190</v>
@@ -8956,7 +8950,7 @@
         <v>532</v>
       </c>
       <c r="Q117" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R117" s="15">
         <v>256</v>
@@ -9015,7 +9009,7 @@
         <v>532</v>
       </c>
       <c r="Q118" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R118" s="15">
         <v>301</v>
@@ -9074,7 +9068,7 @@
         <v>532</v>
       </c>
       <c r="Q119" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R119" s="15">
         <v>278</v>
@@ -9133,7 +9127,7 @@
         <v>532</v>
       </c>
       <c r="Q120" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R120" s="15">
         <v>382</v>
@@ -9192,7 +9186,7 @@
         <v>532</v>
       </c>
       <c r="Q121" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R121" s="15">
         <v>197</v>
@@ -9251,7 +9245,7 @@
         <v>532</v>
       </c>
       <c r="Q122" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R122" s="15">
         <v>333</v>
@@ -9310,7 +9304,7 @@
         <v>532</v>
       </c>
       <c r="Q123" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R123" s="15">
         <v>239</v>
@@ -9367,7 +9361,7 @@
         <v>529</v>
       </c>
       <c r="Q124" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R124" s="15">
         <v>400</v>
@@ -9477,7 +9471,7 @@
         <v>532</v>
       </c>
       <c r="Q126" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R126" s="15"/>
       <c r="S126" s="15"/>
@@ -9530,7 +9524,7 @@
         <v>532</v>
       </c>
       <c r="Q127" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R127" s="15"/>
       <c r="S127" s="15"/>
@@ -9583,7 +9577,7 @@
         <v>532</v>
       </c>
       <c r="Q128" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R128" s="15"/>
       <c r="S128" s="15"/>
@@ -9689,7 +9683,7 @@
         <v>532</v>
       </c>
       <c r="Q130" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R130" s="15"/>
       <c r="S130" s="15"/>
@@ -9848,7 +9842,7 @@
         <v>532</v>
       </c>
       <c r="Q133" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R133" s="15"/>
       <c r="S133" s="15"/>
@@ -9901,7 +9895,7 @@
         <v>532</v>
       </c>
       <c r="Q134" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R134" s="15"/>
       <c r="S134" s="15"/>
@@ -9954,7 +9948,7 @@
         <v>532</v>
       </c>
       <c r="Q135" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R135" s="15"/>
       <c r="S135" s="15"/>
@@ -10060,7 +10054,7 @@
         <v>532</v>
       </c>
       <c r="Q137" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R137" s="15"/>
       <c r="S137" s="15"/>
@@ -10113,7 +10107,7 @@
         <v>532</v>
       </c>
       <c r="Q138" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R138" s="15"/>
       <c r="S138" s="15"/>
@@ -10166,7 +10160,7 @@
         <v>532</v>
       </c>
       <c r="Q139" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R139" s="15"/>
       <c r="S139" s="15"/>
@@ -10219,7 +10213,7 @@
         <v>532</v>
       </c>
       <c r="Q140" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R140" s="15"/>
       <c r="S140" s="15"/>
@@ -10272,7 +10266,7 @@
         <v>532</v>
       </c>
       <c r="Q141" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R141" s="15"/>
       <c r="S141" s="15"/>
@@ -10378,7 +10372,7 @@
         <v>532</v>
       </c>
       <c r="Q143" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R143" s="15"/>
       <c r="S143" s="15"/>
@@ -10431,7 +10425,7 @@
         <v>532</v>
       </c>
       <c r="Q144" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R144" s="15"/>
       <c r="S144" s="15"/>
@@ -12576,7 +12570,7 @@
         <v>532</v>
       </c>
       <c r="Q183" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R183" s="15"/>
       <c r="S183" s="15"/>
@@ -12631,7 +12625,7 @@
         <v>532</v>
       </c>
       <c r="Q184" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R184" s="15"/>
       <c r="S184" s="15"/>
@@ -12686,7 +12680,7 @@
         <v>532</v>
       </c>
       <c r="Q185" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R185" s="15"/>
       <c r="S185" s="15"/>
@@ -12741,7 +12735,7 @@
         <v>532</v>
       </c>
       <c r="Q186" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R186" s="15"/>
       <c r="S186" s="15"/>
@@ -12796,7 +12790,7 @@
         <v>532</v>
       </c>
       <c r="Q187" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R187" s="15"/>
       <c r="S187" s="15"/>
@@ -12851,7 +12845,7 @@
         <v>532</v>
       </c>
       <c r="Q188" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R188" s="15"/>
       <c r="S188" s="15"/>
@@ -12906,7 +12900,7 @@
         <v>532</v>
       </c>
       <c r="Q189" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R189" s="15"/>
       <c r="S189" s="15"/>
@@ -13016,7 +13010,7 @@
         <v>532</v>
       </c>
       <c r="Q191" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R191" s="15"/>
       <c r="S191" s="15"/>
@@ -13071,7 +13065,7 @@
         <v>532</v>
       </c>
       <c r="Q192" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R192" s="15"/>
       <c r="S192" s="15"/>
@@ -13126,7 +13120,7 @@
         <v>532</v>
       </c>
       <c r="Q193" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R193" s="15"/>
       <c r="S193" s="15"/>
@@ -13181,7 +13175,7 @@
         <v>532</v>
       </c>
       <c r="Q194" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R194" s="15"/>
       <c r="S194" s="15"/>
@@ -13401,7 +13395,7 @@
         <v>532</v>
       </c>
       <c r="Q198" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R198" s="15"/>
       <c r="S198" s="15"/>
@@ -13456,7 +13450,7 @@
         <v>532</v>
       </c>
       <c r="Q199" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R199" s="15"/>
       <c r="S199" s="15"/>
@@ -13621,7 +13615,7 @@
         <v>532</v>
       </c>
       <c r="Q202" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R202" s="15"/>
       <c r="S202" s="15"/>
@@ -13676,7 +13670,7 @@
         <v>532</v>
       </c>
       <c r="Q203" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R203" s="15"/>
       <c r="S203" s="15"/>
@@ -13731,7 +13725,7 @@
         <v>532</v>
       </c>
       <c r="Q204" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R204" s="15"/>
       <c r="S204" s="15"/>
@@ -13841,7 +13835,7 @@
         <v>532</v>
       </c>
       <c r="Q206" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R206" s="15"/>
       <c r="S206" s="15"/>
@@ -13896,7 +13890,7 @@
         <v>532</v>
       </c>
       <c r="Q207" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R207" s="15"/>
       <c r="S207" s="15"/>
@@ -13951,7 +13945,7 @@
         <v>532</v>
       </c>
       <c r="Q208" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R208" s="15"/>
       <c r="S208" s="15"/>
@@ -14835,7 +14829,7 @@
         <v>530</v>
       </c>
       <c r="Q224" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R224" s="15">
         <v>409</v>
@@ -14894,7 +14888,7 @@
         <v>530</v>
       </c>
       <c r="Q225" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R225" s="15">
         <v>370</v>
@@ -14953,7 +14947,7 @@
         <v>530</v>
       </c>
       <c r="Q226" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R226" s="15">
         <v>757</v>
@@ -15012,7 +15006,7 @@
         <v>530</v>
       </c>
       <c r="Q227" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R227" s="15">
         <v>451</v>
@@ -15071,7 +15065,7 @@
         <v>530</v>
       </c>
       <c r="Q228" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R228" s="15">
         <v>431</v>
@@ -15130,7 +15124,7 @@
         <v>530</v>
       </c>
       <c r="Q229" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R229" s="15">
         <v>296</v>
@@ -15189,7 +15183,7 @@
         <v>530</v>
       </c>
       <c r="Q230" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R230" s="15">
         <v>936</v>
@@ -15248,7 +15242,7 @@
         <v>530</v>
       </c>
       <c r="Q231" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R231" s="15">
         <v>190</v>
@@ -15307,7 +15301,7 @@
         <v>530</v>
       </c>
       <c r="Q232" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R232" s="15">
         <v>357</v>
@@ -15366,7 +15360,7 @@
         <v>530</v>
       </c>
       <c r="Q233" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R233" s="15">
         <v>389</v>
@@ -16176,7 +16170,7 @@
         <v>530</v>
       </c>
       <c r="Q247" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R247" s="15"/>
       <c r="S247" s="15"/>
@@ -16231,7 +16225,7 @@
         <v>530</v>
       </c>
       <c r="Q248" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R248" s="15">
         <v>100</v>
@@ -16290,7 +16284,7 @@
         <v>530</v>
       </c>
       <c r="Q249" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R249" s="15">
         <v>100</v>
@@ -16404,7 +16398,7 @@
         <v>530</v>
       </c>
       <c r="Q251" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R251" s="15"/>
       <c r="S251" s="15"/>
@@ -16459,7 +16453,7 @@
         <v>530</v>
       </c>
       <c r="Q252" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R252" s="15">
         <v>234</v>
@@ -17430,7 +17424,7 @@
         <v>532</v>
       </c>
       <c r="Q269" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R269" s="15">
         <v>500</v>
@@ -17489,7 +17483,7 @@
         <v>532</v>
       </c>
       <c r="Q270" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R270" s="15">
         <v>500</v>
@@ -17548,7 +17542,7 @@
         <v>532</v>
       </c>
       <c r="Q271" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R271" s="15">
         <v>500</v>
@@ -17607,7 +17601,7 @@
         <v>532</v>
       </c>
       <c r="Q272" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="R272" s="15">
         <v>500</v>
@@ -17666,7 +17660,7 @@
         <v>532</v>
       </c>
       <c r="Q273" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="R273" s="15">
         <v>500</v>
@@ -17725,7 +17719,7 @@
         <v>532</v>
       </c>
       <c r="Q274" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="R274" s="15">
         <v>500</v>
@@ -17784,7 +17778,7 @@
         <v>532</v>
       </c>
       <c r="Q275" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R275" s="15">
         <v>500</v>
@@ -17900,7 +17894,7 @@
         <v>532</v>
       </c>
       <c r="Q277" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R277" s="15">
         <v>500</v>
@@ -17959,7 +17953,7 @@
         <v>532</v>
       </c>
       <c r="Q278" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R278" s="15">
         <v>500</v>
@@ -19913,7 +19907,7 @@
         <v>530</v>
       </c>
       <c r="Q312" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R312" s="15">
         <v>244</v>
@@ -19972,7 +19966,7 @@
         <v>530</v>
       </c>
       <c r="Q313" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R313" s="15">
         <v>468</v>
@@ -20031,7 +20025,7 @@
         <v>530</v>
       </c>
       <c r="Q314" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R314" s="15">
         <v>412</v>
@@ -20090,7 +20084,7 @@
         <v>530</v>
       </c>
       <c r="Q315" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R315" s="15">
         <v>426</v>
@@ -20149,7 +20143,7 @@
         <v>530</v>
       </c>
       <c r="Q316" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R316" s="15">
         <v>621</v>
@@ -20208,7 +20202,7 @@
         <v>530</v>
       </c>
       <c r="Q317" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R317" s="15">
         <v>325</v>
@@ -20267,7 +20261,7 @@
         <v>530</v>
       </c>
       <c r="Q318" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R318" s="15">
         <v>172</v>
@@ -20326,7 +20320,7 @@
         <v>530</v>
       </c>
       <c r="Q319" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R319" s="15">
         <v>84</v>
@@ -20385,7 +20379,7 @@
         <v>530</v>
       </c>
       <c r="Q320" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R320" s="15">
         <v>535</v>
@@ -20444,7 +20438,7 @@
         <v>530</v>
       </c>
       <c r="Q321" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R321" s="15">
         <v>328</v>
@@ -20503,7 +20497,7 @@
         <v>530</v>
       </c>
       <c r="Q322" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R322" s="15">
         <v>463</v>
@@ -20562,7 +20556,7 @@
         <v>530</v>
       </c>
       <c r="Q323" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R323" s="15">
         <v>559</v>
@@ -20621,7 +20615,7 @@
         <v>530</v>
       </c>
       <c r="Q324" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R324" s="15">
         <v>318</v>
@@ -20680,7 +20674,7 @@
         <v>530</v>
       </c>
       <c r="Q325" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R325" s="15">
         <v>59</v>
@@ -20739,7 +20733,7 @@
         <v>530</v>
       </c>
       <c r="Q326" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R326" s="15">
         <v>209</v>
@@ -20798,7 +20792,7 @@
         <v>530</v>
       </c>
       <c r="Q327" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R327" s="15">
         <v>308</v>
@@ -20857,7 +20851,7 @@
         <v>530</v>
       </c>
       <c r="Q328" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R328" s="15">
         <v>345</v>
@@ -20916,7 +20910,7 @@
         <v>530</v>
       </c>
       <c r="Q329" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R329" s="15">
         <v>453</v>
@@ -20975,7 +20969,7 @@
         <v>530</v>
       </c>
       <c r="Q330" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R330" s="15">
         <v>586</v>
@@ -21034,7 +21028,7 @@
         <v>530</v>
       </c>
       <c r="Q331" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R331" s="15">
         <v>591</v>
@@ -21093,7 +21087,7 @@
         <v>530</v>
       </c>
       <c r="Q332" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R332" s="15">
         <v>776</v>
@@ -21447,7 +21441,7 @@
         <v>530</v>
       </c>
       <c r="Q338" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R338" s="15">
         <v>419</v>
@@ -21565,7 +21559,7 @@
         <v>530</v>
       </c>
       <c r="Q340" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R340" s="15">
         <v>372</v>
@@ -21624,7 +21618,7 @@
         <v>530</v>
       </c>
       <c r="Q341" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R341" s="15">
         <v>283</v>
@@ -21683,7 +21677,7 @@
         <v>530</v>
       </c>
       <c r="Q342" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R342" s="15"/>
       <c r="S342" s="15"/>
@@ -21793,7 +21787,7 @@
         <v>530</v>
       </c>
       <c r="Q344" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R344" s="15"/>
       <c r="S344" s="15"/>
@@ -21848,7 +21842,7 @@
         <v>530</v>
       </c>
       <c r="Q345" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R345" s="15"/>
       <c r="S345" s="15"/>
@@ -22068,7 +22062,7 @@
         <v>530</v>
       </c>
       <c r="Q349" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R349" s="15"/>
       <c r="S349" s="15"/>
@@ -22123,7 +22117,7 @@
         <v>530</v>
       </c>
       <c r="Q350" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R350" s="15"/>
       <c r="S350" s="15"/>
@@ -22178,7 +22172,7 @@
         <v>530</v>
       </c>
       <c r="Q351" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R351" s="15"/>
       <c r="S351" s="15"/>
@@ -22233,7 +22227,7 @@
         <v>530</v>
       </c>
       <c r="Q352" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R352" s="15"/>
       <c r="S352" s="15"/>
@@ -22288,7 +22282,7 @@
         <v>530</v>
       </c>
       <c r="Q353" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R353" s="15"/>
       <c r="S353" s="15"/>
@@ -22398,7 +22392,7 @@
         <v>530</v>
       </c>
       <c r="Q355" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R355" s="15"/>
       <c r="S355" s="15"/>
@@ -22453,7 +22447,7 @@
         <v>530</v>
       </c>
       <c r="Q356" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R356" s="15"/>
       <c r="S356" s="15"/>
@@ -22508,7 +22502,7 @@
         <v>530</v>
       </c>
       <c r="Q357" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R357" s="15"/>
       <c r="S357" s="15"/>
@@ -22563,7 +22557,7 @@
         <v>530</v>
       </c>
       <c r="Q358" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R358" s="15"/>
       <c r="S358" s="15"/>
@@ -22673,7 +22667,7 @@
         <v>530</v>
       </c>
       <c r="Q360" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R360" s="15"/>
       <c r="S360" s="15"/>
@@ -22728,7 +22722,7 @@
         <v>530</v>
       </c>
       <c r="Q361" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R361" s="15"/>
       <c r="S361" s="15"/>
@@ -22783,7 +22777,7 @@
         <v>530</v>
       </c>
       <c r="Q362" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R362" s="15"/>
       <c r="S362" s="15"/>
@@ -22838,7 +22832,7 @@
         <v>530</v>
       </c>
       <c r="Q363" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R363" s="15"/>
       <c r="S363" s="15"/>
@@ -22893,7 +22887,7 @@
         <v>530</v>
       </c>
       <c r="Q364" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R364" s="15"/>
       <c r="S364" s="15"/>
@@ -22948,7 +22942,7 @@
         <v>530</v>
       </c>
       <c r="Q365" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R365" s="15"/>
       <c r="S365" s="15"/>
@@ -23003,7 +22997,7 @@
         <v>530</v>
       </c>
       <c r="Q366" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R366" s="15"/>
       <c r="S366" s="15"/>
@@ -23058,7 +23052,7 @@
         <v>530</v>
       </c>
       <c r="Q367" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R367" s="15"/>
       <c r="S367" s="15"/>
@@ -23113,7 +23107,7 @@
         <v>530</v>
       </c>
       <c r="Q368" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R368" s="15"/>
       <c r="S368" s="15"/>
@@ -23223,7 +23217,7 @@
         <v>530</v>
       </c>
       <c r="Q370" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R370" s="15"/>
       <c r="S370" s="15"/>
@@ -23333,7 +23327,7 @@
         <v>530</v>
       </c>
       <c r="Q372" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R372" s="15"/>
       <c r="S372" s="15"/>
@@ -23388,7 +23382,7 @@
         <v>530</v>
       </c>
       <c r="Q373" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R373" s="15"/>
       <c r="S373" s="15"/>
@@ -23443,7 +23437,7 @@
         <v>530</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R374" s="15"/>
       <c r="S374" s="15"/>
@@ -23718,7 +23712,7 @@
         <v>529</v>
       </c>
       <c r="Q379" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R379" s="15"/>
       <c r="S379" s="15"/>
@@ -23773,7 +23767,7 @@
         <v>529</v>
       </c>
       <c r="Q380" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R380" s="15"/>
       <c r="S380" s="15"/>
@@ -23828,7 +23822,7 @@
         <v>529</v>
       </c>
       <c r="Q381" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R381" s="15"/>
       <c r="S381" s="15"/>
@@ -23883,7 +23877,7 @@
         <v>529</v>
       </c>
       <c r="Q382" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R382" s="15"/>
       <c r="S382" s="15"/>
@@ -23938,7 +23932,7 @@
         <v>529</v>
       </c>
       <c r="Q383" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R383" s="15"/>
       <c r="S383" s="15"/>
@@ -23993,7 +23987,7 @@
         <v>529</v>
       </c>
       <c r="Q384" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R384" s="15"/>
       <c r="S384" s="15"/>
@@ -24048,7 +24042,7 @@
         <v>529</v>
       </c>
       <c r="Q385" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R385" s="15"/>
       <c r="S385" s="15"/>
@@ -24103,7 +24097,7 @@
         <v>529</v>
       </c>
       <c r="Q386" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R386" s="15"/>
       <c r="S386" s="15"/>
@@ -24158,7 +24152,7 @@
         <v>529</v>
       </c>
       <c r="Q387" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R387" s="15"/>
       <c r="S387" s="15"/>
@@ -24213,7 +24207,7 @@
         <v>529</v>
       </c>
       <c r="Q388" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R388" s="15"/>
       <c r="S388" s="15"/>
@@ -24543,7 +24537,7 @@
         <v>529</v>
       </c>
       <c r="Q394" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R394" s="15"/>
       <c r="S394" s="15"/>
@@ -24598,7 +24592,7 @@
         <v>529</v>
       </c>
       <c r="Q395" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R395" s="15"/>
       <c r="S395" s="15"/>
@@ -24708,7 +24702,7 @@
         <v>529</v>
       </c>
       <c r="Q397" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R397" s="15"/>
       <c r="S397" s="15"/>
@@ -24763,7 +24757,7 @@
         <v>529</v>
       </c>
       <c r="Q398" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R398" s="15"/>
       <c r="S398" s="15"/>
@@ -24818,7 +24812,7 @@
         <v>530</v>
       </c>
       <c r="Q399" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R399" s="15"/>
       <c r="S399" s="15"/>
@@ -25636,7 +25630,7 @@
         <v>529</v>
       </c>
       <c r="Q413" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R413" s="15">
         <v>800</v>
@@ -26875,7 +26869,7 @@
         <v>529</v>
       </c>
       <c r="Q434" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="R434" s="15">
         <v>200</v>
@@ -26934,7 +26928,7 @@
         <v>529</v>
       </c>
       <c r="Q435" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="R435" s="15">
         <v>150</v>
@@ -27642,7 +27636,7 @@
         <v>530</v>
       </c>
       <c r="Q447" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="R447" s="15">
         <v>150</v>
@@ -28114,7 +28108,7 @@
         <v>530</v>
       </c>
       <c r="Q455" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="R455" s="15">
         <v>100</v>
@@ -29353,7 +29347,7 @@
         <v>529</v>
       </c>
       <c r="Q476" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R476" s="15">
         <v>100</v>
@@ -29412,7 +29406,7 @@
         <v>529</v>
       </c>
       <c r="Q477" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R477" s="15">
         <v>100</v>
@@ -29471,7 +29465,7 @@
         <v>529</v>
       </c>
       <c r="Q478" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R478" s="15">
         <v>100</v>
@@ -29530,7 +29524,7 @@
         <v>529</v>
       </c>
       <c r="Q479" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R479" s="15">
         <v>100</v>
@@ -29589,7 +29583,7 @@
         <v>530</v>
       </c>
       <c r="Q480" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R480" s="15">
         <v>100</v>
@@ -29648,7 +29642,7 @@
         <v>530</v>
       </c>
       <c r="Q481" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R481" s="15">
         <v>100</v>
@@ -29707,7 +29701,7 @@
         <v>530</v>
       </c>
       <c r="Q482" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="R482" s="15">
         <v>300</v>
@@ -29943,7 +29937,7 @@
         <v>530</v>
       </c>
       <c r="Q486" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R486" s="15">
         <v>328</v>
@@ -30002,7 +29996,7 @@
         <v>530</v>
       </c>
       <c r="Q487" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R487" s="15">
         <v>370</v>
@@ -30061,7 +30055,7 @@
         <v>530</v>
       </c>
       <c r="Q488" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R488" s="15">
         <v>283</v>
@@ -30120,7 +30114,7 @@
         <v>530</v>
       </c>
       <c r="Q489" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R489" s="15">
         <v>209</v>
@@ -30179,7 +30173,7 @@
         <v>530</v>
       </c>
       <c r="Q490" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R490" s="15">
         <v>365</v>
@@ -30238,7 +30232,7 @@
         <v>530</v>
       </c>
       <c r="Q491" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R491" s="15">
         <v>382</v>
@@ -30297,7 +30291,7 @@
         <v>530</v>
       </c>
       <c r="Q492" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R492" s="15">
         <v>276</v>
@@ -30356,7 +30350,7 @@
         <v>530</v>
       </c>
       <c r="Q493" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R493" s="15">
         <v>372</v>
@@ -30415,7 +30409,7 @@
         <v>530</v>
       </c>
       <c r="Q494" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R494" s="15">
         <v>752</v>
@@ -30474,7 +30468,7 @@
         <v>532</v>
       </c>
       <c r="Q495" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R495" s="15">
         <v>106</v>
@@ -30533,7 +30527,7 @@
         <v>532</v>
       </c>
       <c r="Q496" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R496" s="15">
         <v>129</v>
@@ -30592,7 +30586,7 @@
         <v>532</v>
       </c>
       <c r="Q497" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R497" s="15">
         <v>192</v>
@@ -30651,7 +30645,7 @@
         <v>532</v>
       </c>
       <c r="Q498" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R498" s="15">
         <v>291</v>
@@ -30710,7 +30704,7 @@
         <v>532</v>
       </c>
       <c r="Q499" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R499" s="15">
         <v>306</v>
@@ -30769,7 +30763,7 @@
         <v>530</v>
       </c>
       <c r="Q500" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R500" s="15">
         <v>308</v>
@@ -30828,7 +30822,7 @@
         <v>532</v>
       </c>
       <c r="Q501" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R501" s="15">
         <v>377</v>
@@ -30887,7 +30881,7 @@
         <v>532</v>
       </c>
       <c r="Q502" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R502" s="15">
         <v>424</v>
@@ -30946,7 +30940,7 @@
         <v>532</v>
       </c>
       <c r="Q503" s="10" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="R503" s="15">
         <v>955</v>
@@ -31005,7 +30999,7 @@
         <v>532</v>
       </c>
       <c r="Q504" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R504" s="15">
         <v>431</v>
@@ -31064,7 +31058,7 @@
         <v>530</v>
       </c>
       <c r="Q505" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R505" s="15">
         <v>333</v>
@@ -31123,7 +31117,7 @@
         <v>530</v>
       </c>
       <c r="Q506" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R506" s="15">
         <v>463</v>
@@ -31182,7 +31176,7 @@
         <v>530</v>
       </c>
       <c r="Q507" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R507" s="15">
         <v>340</v>
@@ -31241,7 +31235,7 @@
         <v>530</v>
       </c>
       <c r="Q508" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R508" s="15">
         <v>503</v>
@@ -31300,7 +31294,7 @@
         <v>530</v>
       </c>
       <c r="Q509" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R509" s="15">
         <v>192</v>
@@ -31359,7 +31353,7 @@
         <v>530</v>
       </c>
       <c r="Q510" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R510" s="15">
         <v>163</v>
@@ -31418,7 +31412,7 @@
         <v>530</v>
       </c>
       <c r="Q511" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R511" s="15">
         <v>554</v>
@@ -31477,7 +31471,7 @@
         <v>530</v>
       </c>
       <c r="Q512" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R512" s="15">
         <v>448</v>
@@ -31536,7 +31530,7 @@
         <v>530</v>
       </c>
       <c r="Q513" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R513" s="15">
         <v>205</v>
@@ -31595,7 +31589,7 @@
         <v>530</v>
       </c>
       <c r="Q514" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R514" s="15">
         <v>426</v>
@@ -31654,7 +31648,7 @@
         <v>530</v>
       </c>
       <c r="Q515" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R515" s="15">
         <v>300</v>
@@ -31713,7 +31707,7 @@
         <v>530</v>
       </c>
       <c r="Q516" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R516" s="15">
         <v>567</v>
@@ -31772,7 +31766,7 @@
         <v>530</v>
       </c>
       <c r="Q517" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R517" s="15">
         <v>185</v>
@@ -31831,7 +31825,7 @@
         <v>530</v>
       </c>
       <c r="Q518" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R518" s="15">
         <v>207</v>
@@ -31890,7 +31884,7 @@
         <v>530</v>
       </c>
       <c r="Q519" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R519" s="15">
         <v>217</v>
@@ -31949,7 +31943,7 @@
         <v>530</v>
       </c>
       <c r="Q520" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R520" s="15">
         <v>234</v>
@@ -32008,7 +32002,7 @@
         <v>530</v>
       </c>
       <c r="Q521" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R521" s="15">
         <v>259</v>
@@ -32067,7 +32061,7 @@
         <v>530</v>
       </c>
       <c r="Q522" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R522" s="15">
         <v>407</v>
@@ -32126,7 +32120,7 @@
         <v>530</v>
       </c>
       <c r="Q523" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R523" s="15">
         <v>283</v>
@@ -32185,7 +32179,7 @@
         <v>530</v>
       </c>
       <c r="Q524" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R524" s="15">
         <v>266</v>
@@ -32244,7 +32238,7 @@
         <v>530</v>
       </c>
       <c r="Q525" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R525" s="15">
         <v>286</v>
@@ -32303,7 +32297,7 @@
         <v>530</v>
       </c>
       <c r="Q526" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R526" s="15">
         <v>296</v>
@@ -32362,7 +32356,7 @@
         <v>530</v>
       </c>
       <c r="Q527" s="10" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="R527" s="15">
         <v>759</v>
@@ -32421,7 +32415,7 @@
         <v>530</v>
       </c>
       <c r="Q528" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R528" s="15">
         <v>308</v>
@@ -32480,7 +32474,7 @@
         <v>530</v>
       </c>
       <c r="Q529" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R529" s="15">
         <v>505</v>
@@ -32539,7 +32533,7 @@
         <v>530</v>
       </c>
       <c r="Q530" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R530" s="15">
         <v>522</v>
@@ -32598,7 +32592,7 @@
         <v>530</v>
       </c>
       <c r="Q531" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R531" s="15">
         <v>481</v>
@@ -32657,7 +32651,7 @@
         <v>530</v>
       </c>
       <c r="Q532" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R532" s="15">
         <v>468</v>
@@ -32716,7 +32710,7 @@
         <v>530</v>
       </c>
       <c r="Q533" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R533" s="15">
         <v>611</v>
@@ -33231,7 +33225,7 @@
         <v>530</v>
       </c>
       <c r="Q542" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R542" s="15">
         <v>300</v>
@@ -33290,7 +33284,7 @@
         <v>530</v>
       </c>
       <c r="Q543" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R543" s="15"/>
       <c r="S543" s="15"/>
@@ -33345,7 +33339,7 @@
         <v>530</v>
       </c>
       <c r="Q544" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R544" s="15"/>
       <c r="S544" s="15"/>
@@ -33510,7 +33504,7 @@
         <v>530</v>
       </c>
       <c r="Q547" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R547" s="15"/>
       <c r="S547" s="15"/>
@@ -33565,7 +33559,7 @@
         <v>530</v>
       </c>
       <c r="Q548" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R548" s="15"/>
       <c r="S548" s="15"/>
@@ -33620,7 +33614,7 @@
         <v>530</v>
       </c>
       <c r="Q549" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R549" s="15"/>
       <c r="S549" s="15"/>
@@ -33675,7 +33669,7 @@
         <v>530</v>
       </c>
       <c r="Q550" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R550" s="15"/>
       <c r="S550" s="15"/>
@@ -33730,7 +33724,7 @@
         <v>530</v>
       </c>
       <c r="Q551" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R551" s="15"/>
       <c r="S551" s="15"/>

--- a/scr/data/20240905_finish_batch3.xlsx
+++ b/scr/data/20240905_finish_batch3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuduong\Learning\test_cutting_stock_optima\scr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE54334E-5E72-47F0-8DF4-A10A1DC320B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27154900-6E3C-4C5E-A0AB-96A7EEF3044E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{97E9A37B-168E-4DB2-9422-951A4AE0FE8F}"/>
   </bookViews>
@@ -1722,9 +1722,6 @@
     <t>3rd Priority</t>
   </si>
   <si>
-    <t>Standard</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
@@ -1732,6 +1729,9 @@
   </si>
   <si>
     <t>small-medium</t>
+  </si>
+  <si>
+    <t>standard</t>
   </si>
 </sst>
 </file>
@@ -2307,7 +2307,7 @@
   <dimension ref="A1:S554"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2376,7 +2376,7 @@
         <v>548</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>533</v>
@@ -2435,7 +2435,7 @@
         <v>530</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
@@ -2490,7 +2490,7 @@
         <v>530</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
@@ -2545,7 +2545,7 @@
         <v>530</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
@@ -2600,7 +2600,7 @@
         <v>530</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
@@ -2655,7 +2655,7 @@
         <v>530</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
@@ -2710,7 +2710,7 @@
         <v>530</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
@@ -2765,7 +2765,7 @@
         <v>530</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
@@ -2820,7 +2820,7 @@
         <v>530</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
@@ -2875,7 +2875,7 @@
         <v>530</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
@@ -2930,7 +2930,7 @@
         <v>530</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
@@ -2985,7 +2985,7 @@
         <v>530</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
@@ -3040,7 +3040,7 @@
         <v>530</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
@@ -3095,7 +3095,7 @@
         <v>530</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
@@ -3150,7 +3150,7 @@
         <v>530</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
@@ -3205,7 +3205,7 @@
         <v>530</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
@@ -3260,7 +3260,7 @@
         <v>530</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
@@ -3315,7 +3315,7 @@
         <v>530</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
@@ -3370,7 +3370,7 @@
         <v>530</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R19" s="15"/>
       <c r="S19" s="15"/>
@@ -3425,7 +3425,7 @@
         <v>530</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
@@ -3480,7 +3480,7 @@
         <v>530</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
@@ -3535,7 +3535,7 @@
         <v>530</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
@@ -3590,7 +3590,7 @@
         <v>530</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
@@ -3645,7 +3645,7 @@
         <v>530</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
@@ -3700,7 +3700,7 @@
         <v>530</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R25" s="15"/>
       <c r="S25" s="15"/>
@@ -3755,7 +3755,7 @@
         <v>530</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R26" s="15"/>
       <c r="S26" s="15"/>
@@ -3810,7 +3810,7 @@
         <v>530</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
@@ -3865,7 +3865,7 @@
         <v>530</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
@@ -3920,7 +3920,7 @@
         <v>530</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
@@ -3975,7 +3975,7 @@
         <v>530</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R30" s="15"/>
       <c r="S30" s="15"/>
@@ -4030,7 +4030,7 @@
         <v>530</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R31" s="15"/>
       <c r="S31" s="15"/>
@@ -4085,7 +4085,7 @@
         <v>530</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R32" s="15"/>
       <c r="S32" s="15"/>
@@ -4140,7 +4140,7 @@
         <v>530</v>
       </c>
       <c r="Q33" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R33" s="15"/>
       <c r="S33" s="15"/>
@@ -4195,7 +4195,7 @@
         <v>530</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R34" s="15"/>
       <c r="S34" s="15"/>
@@ -4250,7 +4250,7 @@
         <v>530</v>
       </c>
       <c r="Q35" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
@@ -4305,7 +4305,7 @@
         <v>530</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
@@ -4360,7 +4360,7 @@
         <v>530</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
@@ -4415,7 +4415,7 @@
         <v>530</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
@@ -4470,7 +4470,7 @@
         <v>530</v>
       </c>
       <c r="Q39" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
@@ -4525,7 +4525,7 @@
         <v>530</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
@@ -4580,7 +4580,7 @@
         <v>530</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R41" s="15">
         <v>246</v>
@@ -4639,7 +4639,7 @@
         <v>530</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R42" s="15">
         <v>343</v>
@@ -4698,7 +4698,7 @@
         <v>530</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R43" s="15">
         <v>222</v>
@@ -4757,7 +4757,7 @@
         <v>530</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R44" s="15">
         <v>308</v>
@@ -4816,7 +4816,7 @@
         <v>530</v>
       </c>
       <c r="Q45" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R45" s="15">
         <v>419</v>
@@ -4875,7 +4875,7 @@
         <v>530</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R46" s="15">
         <v>148</v>
@@ -4934,7 +4934,7 @@
         <v>530</v>
       </c>
       <c r="Q47" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R47" s="15">
         <v>352</v>
@@ -4993,7 +4993,7 @@
         <v>530</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R48" s="15">
         <v>291</v>
@@ -5052,7 +5052,7 @@
         <v>530</v>
       </c>
       <c r="Q49" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R49" s="15">
         <v>377</v>
@@ -5111,7 +5111,7 @@
         <v>530</v>
       </c>
       <c r="Q50" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R50" s="15">
         <v>604</v>
@@ -5170,7 +5170,7 @@
         <v>530</v>
       </c>
       <c r="Q51" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R51" s="15">
         <v>209</v>
@@ -5229,7 +5229,7 @@
         <v>530</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R52" s="15">
         <v>100</v>
@@ -5288,7 +5288,7 @@
         <v>530</v>
       </c>
       <c r="Q53" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R53" s="15">
         <v>100</v>
@@ -5347,7 +5347,7 @@
         <v>530</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R54" s="15">
         <v>100</v>
@@ -5406,7 +5406,7 @@
         <v>530</v>
       </c>
       <c r="Q55" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R55" s="15">
         <v>100</v>
@@ -5465,7 +5465,7 @@
         <v>530</v>
       </c>
       <c r="Q56" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R56" s="15"/>
       <c r="S56" s="15">
@@ -5522,7 +5522,7 @@
         <v>530</v>
       </c>
       <c r="Q57" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R57" s="15"/>
       <c r="S57" s="15">
@@ -5579,7 +5579,7 @@
         <v>530</v>
       </c>
       <c r="Q58" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R58" s="15"/>
       <c r="S58" s="15">
@@ -5636,7 +5636,7 @@
         <v>530</v>
       </c>
       <c r="Q59" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R59" s="15"/>
       <c r="S59" s="15">
@@ -5693,7 +5693,7 @@
         <v>530</v>
       </c>
       <c r="Q60" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R60" s="15"/>
       <c r="S60" s="15">
@@ -5750,7 +5750,7 @@
         <v>530</v>
       </c>
       <c r="Q61" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R61" s="15"/>
       <c r="S61" s="15">
@@ -5807,7 +5807,7 @@
         <v>530</v>
       </c>
       <c r="Q62" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R62" s="15"/>
       <c r="S62" s="15">
@@ -5864,7 +5864,7 @@
         <v>530</v>
       </c>
       <c r="Q63" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R63" s="15"/>
       <c r="S63" s="15">
@@ -5921,7 +5921,7 @@
         <v>530</v>
       </c>
       <c r="Q64" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R64" s="15"/>
       <c r="S64" s="15">
@@ -5978,7 +5978,7 @@
         <v>530</v>
       </c>
       <c r="Q65" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R65" s="15"/>
       <c r="S65" s="15">
@@ -6035,7 +6035,7 @@
         <v>530</v>
       </c>
       <c r="Q66" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R66" s="15"/>
       <c r="S66" s="15">
@@ -6092,7 +6092,7 @@
         <v>530</v>
       </c>
       <c r="Q67" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R67" s="15"/>
       <c r="S67" s="15">
@@ -6149,7 +6149,7 @@
         <v>530</v>
       </c>
       <c r="Q68" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R68" s="15"/>
       <c r="S68" s="15">
@@ -6206,7 +6206,7 @@
         <v>530</v>
       </c>
       <c r="Q69" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R69" s="15"/>
       <c r="S69" s="15">
@@ -6263,7 +6263,7 @@
         <v>530</v>
       </c>
       <c r="Q70" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R70" s="15"/>
       <c r="S70" s="15">
@@ -6320,7 +6320,7 @@
         <v>530</v>
       </c>
       <c r="Q71" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R71" s="15"/>
       <c r="S71" s="15">
@@ -6377,7 +6377,7 @@
         <v>530</v>
       </c>
       <c r="Q72" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R72" s="15"/>
       <c r="S72" s="15">
@@ -6434,7 +6434,7 @@
         <v>530</v>
       </c>
       <c r="Q73" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R73" s="15"/>
       <c r="S73" s="15">
@@ -6491,7 +6491,7 @@
         <v>530</v>
       </c>
       <c r="Q74" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R74" s="15"/>
       <c r="S74" s="15">
@@ -6548,7 +6548,7 @@
         <v>530</v>
       </c>
       <c r="Q75" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R75" s="15"/>
       <c r="S75" s="15">
@@ -6605,7 +6605,7 @@
         <v>530</v>
       </c>
       <c r="Q76" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R76" s="15"/>
       <c r="S76" s="15">
@@ -6662,7 +6662,7 @@
         <v>530</v>
       </c>
       <c r="Q77" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R77" s="15"/>
       <c r="S77" s="15">
@@ -6719,7 +6719,7 @@
         <v>530</v>
       </c>
       <c r="Q78" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R78" s="15"/>
       <c r="S78" s="15">
@@ -6776,7 +6776,7 @@
         <v>530</v>
       </c>
       <c r="Q79" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R79" s="15"/>
       <c r="S79" s="15">
@@ -6833,7 +6833,7 @@
         <v>530</v>
       </c>
       <c r="Q80" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R80" s="15"/>
       <c r="S80" s="15">
@@ -6890,7 +6890,7 @@
         <v>530</v>
       </c>
       <c r="Q81" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R81" s="15"/>
       <c r="S81" s="15">
@@ -6947,7 +6947,7 @@
         <v>530</v>
       </c>
       <c r="Q82" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R82" s="15"/>
       <c r="S82" s="15">
@@ -7004,7 +7004,7 @@
         <v>530</v>
       </c>
       <c r="Q83" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R83" s="15"/>
       <c r="S83" s="15">
@@ -7061,7 +7061,7 @@
         <v>530</v>
       </c>
       <c r="Q84" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R84" s="15"/>
       <c r="S84" s="15">
@@ -7118,7 +7118,7 @@
         <v>530</v>
       </c>
       <c r="Q85" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R85" s="15"/>
       <c r="S85" s="15">
@@ -7175,7 +7175,7 @@
         <v>530</v>
       </c>
       <c r="Q86" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R86" s="15"/>
       <c r="S86" s="15">
@@ -7232,7 +7232,7 @@
         <v>530</v>
       </c>
       <c r="Q87" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R87" s="15"/>
       <c r="S87" s="15">
@@ -7289,7 +7289,7 @@
         <v>530</v>
       </c>
       <c r="Q88" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R88" s="15"/>
       <c r="S88" s="15">
@@ -7346,7 +7346,7 @@
         <v>530</v>
       </c>
       <c r="Q89" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R89" s="15"/>
       <c r="S89" s="15">
@@ -7403,7 +7403,7 @@
         <v>530</v>
       </c>
       <c r="Q90" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R90" s="15"/>
       <c r="S90" s="15">
@@ -7460,7 +7460,7 @@
         <v>530</v>
       </c>
       <c r="Q91" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R91" s="15"/>
       <c r="S91" s="15"/>
@@ -7515,7 +7515,7 @@
         <v>530</v>
       </c>
       <c r="Q92" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R92" s="15"/>
       <c r="S92" s="15"/>
@@ -7570,7 +7570,7 @@
         <v>530</v>
       </c>
       <c r="Q93" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R93" s="15"/>
       <c r="S93" s="15"/>
@@ -7625,7 +7625,7 @@
         <v>530</v>
       </c>
       <c r="Q94" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R94" s="15"/>
       <c r="S94" s="15"/>
@@ -7680,7 +7680,7 @@
         <v>530</v>
       </c>
       <c r="Q95" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R95" s="15"/>
       <c r="S95" s="15"/>
@@ -7735,7 +7735,7 @@
         <v>530</v>
       </c>
       <c r="Q96" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R96" s="15"/>
       <c r="S96" s="15"/>
@@ -7790,7 +7790,7 @@
         <v>530</v>
       </c>
       <c r="Q97" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R97" s="15"/>
       <c r="S97" s="15"/>
@@ -7845,7 +7845,7 @@
         <v>530</v>
       </c>
       <c r="Q98" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R98" s="15"/>
       <c r="S98" s="15"/>
@@ -7900,7 +7900,7 @@
         <v>530</v>
       </c>
       <c r="Q99" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R99" s="15"/>
       <c r="S99" s="15"/>
@@ -7955,7 +7955,7 @@
         <v>530</v>
       </c>
       <c r="Q100" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R100" s="15"/>
       <c r="S100" s="15"/>
@@ -8010,7 +8010,7 @@
         <v>530</v>
       </c>
       <c r="Q101" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R101" s="15"/>
       <c r="S101" s="15"/>
@@ -8065,7 +8065,7 @@
         <v>530</v>
       </c>
       <c r="Q102" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R102" s="15">
         <v>100</v>
@@ -8124,7 +8124,7 @@
         <v>530</v>
       </c>
       <c r="Q103" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R103" s="15">
         <v>100</v>
@@ -8183,7 +8183,7 @@
         <v>530</v>
       </c>
       <c r="Q104" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R104" s="15">
         <v>100</v>
@@ -8242,7 +8242,7 @@
         <v>530</v>
       </c>
       <c r="Q105" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R105" s="15">
         <v>100</v>
@@ -8301,7 +8301,7 @@
         <v>530</v>
       </c>
       <c r="Q106" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R106" s="15">
         <v>100</v>
@@ -8360,7 +8360,7 @@
         <v>530</v>
       </c>
       <c r="Q107" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R107" s="15">
         <v>100</v>
@@ -8419,7 +8419,7 @@
         <v>530</v>
       </c>
       <c r="Q108" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R108" s="15">
         <v>100</v>
@@ -8478,7 +8478,7 @@
         <v>530</v>
       </c>
       <c r="Q109" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R109" s="15">
         <v>100</v>
@@ -8537,7 +8537,7 @@
         <v>530</v>
       </c>
       <c r="Q110" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R110" s="15">
         <v>100</v>
@@ -8596,7 +8596,7 @@
         <v>530</v>
       </c>
       <c r="Q111" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R111" s="15">
         <v>100</v>
@@ -8655,7 +8655,7 @@
         <v>530</v>
       </c>
       <c r="Q112" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R112" s="15">
         <v>100</v>
@@ -8714,7 +8714,7 @@
         <v>530</v>
       </c>
       <c r="Q113" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R113" s="15">
         <v>100</v>
@@ -8773,7 +8773,7 @@
         <v>530</v>
       </c>
       <c r="Q114" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R114" s="15">
         <v>100</v>
@@ -8832,7 +8832,7 @@
         <v>530</v>
       </c>
       <c r="Q115" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R115" s="15">
         <v>100</v>
@@ -8891,7 +8891,7 @@
         <v>532</v>
       </c>
       <c r="Q116" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R116" s="15">
         <v>190</v>
@@ -8950,7 +8950,7 @@
         <v>532</v>
       </c>
       <c r="Q117" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R117" s="15">
         <v>256</v>
@@ -9009,7 +9009,7 @@
         <v>532</v>
       </c>
       <c r="Q118" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R118" s="15">
         <v>301</v>
@@ -9068,7 +9068,7 @@
         <v>532</v>
       </c>
       <c r="Q119" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R119" s="15">
         <v>278</v>
@@ -9127,7 +9127,7 @@
         <v>532</v>
       </c>
       <c r="Q120" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R120" s="15">
         <v>382</v>
@@ -9186,7 +9186,7 @@
         <v>532</v>
       </c>
       <c r="Q121" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R121" s="15">
         <v>197</v>
@@ -9245,7 +9245,7 @@
         <v>532</v>
       </c>
       <c r="Q122" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R122" s="15">
         <v>333</v>
@@ -9304,7 +9304,7 @@
         <v>532</v>
       </c>
       <c r="Q123" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R123" s="15">
         <v>239</v>
@@ -9361,7 +9361,7 @@
         <v>529</v>
       </c>
       <c r="Q124" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R124" s="15">
         <v>400</v>
@@ -9418,7 +9418,7 @@
         <v>532</v>
       </c>
       <c r="Q125" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R125" s="15"/>
       <c r="S125" s="15"/>
@@ -9471,7 +9471,7 @@
         <v>532</v>
       </c>
       <c r="Q126" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R126" s="15"/>
       <c r="S126" s="15"/>
@@ -9524,7 +9524,7 @@
         <v>532</v>
       </c>
       <c r="Q127" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R127" s="15"/>
       <c r="S127" s="15"/>
@@ -9577,7 +9577,7 @@
         <v>532</v>
       </c>
       <c r="Q128" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R128" s="15"/>
       <c r="S128" s="15"/>
@@ -9630,7 +9630,7 @@
         <v>532</v>
       </c>
       <c r="Q129" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R129" s="15"/>
       <c r="S129" s="15"/>
@@ -9683,7 +9683,7 @@
         <v>532</v>
       </c>
       <c r="Q130" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R130" s="15"/>
       <c r="S130" s="15"/>
@@ -9736,7 +9736,7 @@
         <v>532</v>
       </c>
       <c r="Q131" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R131" s="15"/>
       <c r="S131" s="15"/>
@@ -9789,7 +9789,7 @@
         <v>532</v>
       </c>
       <c r="Q132" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R132" s="15"/>
       <c r="S132" s="15"/>
@@ -9842,7 +9842,7 @@
         <v>532</v>
       </c>
       <c r="Q133" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R133" s="15"/>
       <c r="S133" s="15"/>
@@ -9895,7 +9895,7 @@
         <v>532</v>
       </c>
       <c r="Q134" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R134" s="15"/>
       <c r="S134" s="15"/>
@@ -9948,7 +9948,7 @@
         <v>532</v>
       </c>
       <c r="Q135" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R135" s="15"/>
       <c r="S135" s="15"/>
@@ -10001,7 +10001,7 @@
         <v>532</v>
       </c>
       <c r="Q136" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R136" s="15"/>
       <c r="S136" s="15"/>
@@ -10054,7 +10054,7 @@
         <v>532</v>
       </c>
       <c r="Q137" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R137" s="15"/>
       <c r="S137" s="15"/>
@@ -10107,7 +10107,7 @@
         <v>532</v>
       </c>
       <c r="Q138" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R138" s="15"/>
       <c r="S138" s="15"/>
@@ -10160,7 +10160,7 @@
         <v>532</v>
       </c>
       <c r="Q139" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R139" s="15"/>
       <c r="S139" s="15"/>
@@ -10213,7 +10213,7 @@
         <v>532</v>
       </c>
       <c r="Q140" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R140" s="15"/>
       <c r="S140" s="15"/>
@@ -10266,7 +10266,7 @@
         <v>532</v>
       </c>
       <c r="Q141" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R141" s="15"/>
       <c r="S141" s="15"/>
@@ -10319,7 +10319,7 @@
         <v>532</v>
       </c>
       <c r="Q142" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R142" s="15"/>
       <c r="S142" s="15"/>
@@ -10372,7 +10372,7 @@
         <v>532</v>
       </c>
       <c r="Q143" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R143" s="15"/>
       <c r="S143" s="15"/>
@@ -10425,7 +10425,7 @@
         <v>532</v>
       </c>
       <c r="Q144" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R144" s="15"/>
       <c r="S144" s="15"/>
@@ -10478,7 +10478,7 @@
         <v>532</v>
       </c>
       <c r="Q145" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R145" s="15"/>
       <c r="S145" s="15">
@@ -10533,7 +10533,7 @@
         <v>532</v>
       </c>
       <c r="Q146" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R146" s="15"/>
       <c r="S146" s="15">
@@ -10588,7 +10588,7 @@
         <v>532</v>
       </c>
       <c r="Q147" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R147" s="15"/>
       <c r="S147" s="15">
@@ -10643,7 +10643,7 @@
         <v>532</v>
       </c>
       <c r="Q148" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R148" s="15"/>
       <c r="S148" s="15">
@@ -10698,7 +10698,7 @@
         <v>532</v>
       </c>
       <c r="Q149" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R149" s="15"/>
       <c r="S149" s="15">
@@ -10753,7 +10753,7 @@
         <v>532</v>
       </c>
       <c r="Q150" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R150" s="15"/>
       <c r="S150" s="15">
@@ -10808,7 +10808,7 @@
         <v>532</v>
       </c>
       <c r="Q151" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R151" s="15"/>
       <c r="S151" s="15">
@@ -10863,7 +10863,7 @@
         <v>532</v>
       </c>
       <c r="Q152" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R152" s="15"/>
       <c r="S152" s="15">
@@ -10918,7 +10918,7 @@
         <v>532</v>
       </c>
       <c r="Q153" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R153" s="15"/>
       <c r="S153" s="15">
@@ -10973,7 +10973,7 @@
         <v>532</v>
       </c>
       <c r="Q154" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R154" s="15"/>
       <c r="S154" s="15">
@@ -11028,7 +11028,7 @@
         <v>532</v>
       </c>
       <c r="Q155" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R155" s="15"/>
       <c r="S155" s="15">
@@ -11083,7 +11083,7 @@
         <v>532</v>
       </c>
       <c r="Q156" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R156" s="15"/>
       <c r="S156" s="15">
@@ -11138,7 +11138,7 @@
         <v>532</v>
       </c>
       <c r="Q157" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R157" s="15"/>
       <c r="S157" s="15">
@@ -11193,7 +11193,7 @@
         <v>532</v>
       </c>
       <c r="Q158" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R158" s="15"/>
       <c r="S158" s="15">
@@ -11248,7 +11248,7 @@
         <v>532</v>
       </c>
       <c r="Q159" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R159" s="15"/>
       <c r="S159" s="15">
@@ -11303,7 +11303,7 @@
         <v>532</v>
       </c>
       <c r="Q160" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R160" s="15"/>
       <c r="S160" s="15">
@@ -11358,7 +11358,7 @@
         <v>532</v>
       </c>
       <c r="Q161" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R161" s="15"/>
       <c r="S161" s="15">
@@ -11413,7 +11413,7 @@
         <v>532</v>
       </c>
       <c r="Q162" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R162" s="15"/>
       <c r="S162" s="15">
@@ -11468,7 +11468,7 @@
         <v>532</v>
       </c>
       <c r="Q163" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R163" s="15"/>
       <c r="S163" s="15">
@@ -11523,7 +11523,7 @@
         <v>532</v>
       </c>
       <c r="Q164" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R164" s="15"/>
       <c r="S164" s="15">
@@ -11578,7 +11578,7 @@
         <v>532</v>
       </c>
       <c r="Q165" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R165" s="15"/>
       <c r="S165" s="15">
@@ -11633,7 +11633,7 @@
         <v>532</v>
       </c>
       <c r="Q166" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R166" s="15"/>
       <c r="S166" s="15">
@@ -11688,7 +11688,7 @@
         <v>532</v>
       </c>
       <c r="Q167" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R167" s="15"/>
       <c r="S167" s="15">
@@ -11743,7 +11743,7 @@
         <v>532</v>
       </c>
       <c r="Q168" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R168" s="15"/>
       <c r="S168" s="15">
@@ -11798,7 +11798,7 @@
         <v>532</v>
       </c>
       <c r="Q169" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R169" s="15"/>
       <c r="S169" s="15">
@@ -11853,7 +11853,7 @@
         <v>532</v>
       </c>
       <c r="Q170" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R170" s="15"/>
       <c r="S170" s="15">
@@ -11908,7 +11908,7 @@
         <v>532</v>
       </c>
       <c r="Q171" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R171" s="15"/>
       <c r="S171" s="15">
@@ -11963,7 +11963,7 @@
         <v>532</v>
       </c>
       <c r="Q172" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R172" s="15"/>
       <c r="S172" s="15">
@@ -12018,7 +12018,7 @@
         <v>532</v>
       </c>
       <c r="Q173" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R173" s="15"/>
       <c r="S173" s="15">
@@ -12073,7 +12073,7 @@
         <v>532</v>
       </c>
       <c r="Q174" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R174" s="15"/>
       <c r="S174" s="15">
@@ -12128,7 +12128,7 @@
         <v>532</v>
       </c>
       <c r="Q175" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R175" s="15"/>
       <c r="S175" s="15">
@@ -12183,7 +12183,7 @@
         <v>532</v>
       </c>
       <c r="Q176" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R176" s="15"/>
       <c r="S176" s="15">
@@ -12238,7 +12238,7 @@
         <v>532</v>
       </c>
       <c r="Q177" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R177" s="15"/>
       <c r="S177" s="15">
@@ -12293,7 +12293,7 @@
         <v>532</v>
       </c>
       <c r="Q178" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R178" s="15"/>
       <c r="S178" s="15">
@@ -12348,7 +12348,7 @@
         <v>532</v>
       </c>
       <c r="Q179" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R179" s="15"/>
       <c r="S179" s="15">
@@ -12403,7 +12403,7 @@
         <v>532</v>
       </c>
       <c r="Q180" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R180" s="15"/>
       <c r="S180" s="15">
@@ -12458,7 +12458,7 @@
         <v>532</v>
       </c>
       <c r="Q181" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R181" s="15"/>
       <c r="S181" s="15">
@@ -12513,7 +12513,7 @@
         <v>532</v>
       </c>
       <c r="Q182" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R182" s="15"/>
       <c r="S182" s="15">
@@ -12570,7 +12570,7 @@
         <v>532</v>
       </c>
       <c r="Q183" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R183" s="15"/>
       <c r="S183" s="15"/>
@@ -12625,7 +12625,7 @@
         <v>532</v>
       </c>
       <c r="Q184" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R184" s="15"/>
       <c r="S184" s="15"/>
@@ -12680,7 +12680,7 @@
         <v>532</v>
       </c>
       <c r="Q185" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R185" s="15"/>
       <c r="S185" s="15"/>
@@ -12735,7 +12735,7 @@
         <v>532</v>
       </c>
       <c r="Q186" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R186" s="15"/>
       <c r="S186" s="15"/>
@@ -12790,7 +12790,7 @@
         <v>532</v>
       </c>
       <c r="Q187" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R187" s="15"/>
       <c r="S187" s="15"/>
@@ -12845,7 +12845,7 @@
         <v>532</v>
       </c>
       <c r="Q188" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R188" s="15"/>
       <c r="S188" s="15"/>
@@ -12900,7 +12900,7 @@
         <v>532</v>
       </c>
       <c r="Q189" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R189" s="15"/>
       <c r="S189" s="15"/>
@@ -12955,7 +12955,7 @@
         <v>532</v>
       </c>
       <c r="Q190" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R190" s="15"/>
       <c r="S190" s="15"/>
@@ -13010,7 +13010,7 @@
         <v>532</v>
       </c>
       <c r="Q191" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R191" s="15"/>
       <c r="S191" s="15"/>
@@ -13065,7 +13065,7 @@
         <v>532</v>
       </c>
       <c r="Q192" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R192" s="15"/>
       <c r="S192" s="15"/>
@@ -13120,7 +13120,7 @@
         <v>532</v>
       </c>
       <c r="Q193" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R193" s="15"/>
       <c r="S193" s="15"/>
@@ -13175,7 +13175,7 @@
         <v>532</v>
       </c>
       <c r="Q194" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R194" s="15"/>
       <c r="S194" s="15"/>
@@ -13230,7 +13230,7 @@
         <v>532</v>
       </c>
       <c r="Q195" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R195" s="15"/>
       <c r="S195" s="15"/>
@@ -13285,7 +13285,7 @@
         <v>532</v>
       </c>
       <c r="Q196" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R196" s="15"/>
       <c r="S196" s="15"/>
@@ -13340,7 +13340,7 @@
         <v>532</v>
       </c>
       <c r="Q197" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R197" s="15"/>
       <c r="S197" s="15"/>
@@ -13395,7 +13395,7 @@
         <v>532</v>
       </c>
       <c r="Q198" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R198" s="15"/>
       <c r="S198" s="15"/>
@@ -13450,7 +13450,7 @@
         <v>532</v>
       </c>
       <c r="Q199" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R199" s="15"/>
       <c r="S199" s="15"/>
@@ -13505,7 +13505,7 @@
         <v>532</v>
       </c>
       <c r="Q200" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R200" s="15"/>
       <c r="S200" s="15"/>
@@ -13560,7 +13560,7 @@
         <v>532</v>
       </c>
       <c r="Q201" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R201" s="15"/>
       <c r="S201" s="15"/>
@@ -13615,7 +13615,7 @@
         <v>532</v>
       </c>
       <c r="Q202" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R202" s="15"/>
       <c r="S202" s="15"/>
@@ -13670,7 +13670,7 @@
         <v>532</v>
       </c>
       <c r="Q203" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R203" s="15"/>
       <c r="S203" s="15"/>
@@ -13725,7 +13725,7 @@
         <v>532</v>
       </c>
       <c r="Q204" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R204" s="15"/>
       <c r="S204" s="15"/>
@@ -13780,7 +13780,7 @@
         <v>532</v>
       </c>
       <c r="Q205" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R205" s="15"/>
       <c r="S205" s="15"/>
@@ -13835,7 +13835,7 @@
         <v>532</v>
       </c>
       <c r="Q206" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R206" s="15"/>
       <c r="S206" s="15"/>
@@ -13890,7 +13890,7 @@
         <v>532</v>
       </c>
       <c r="Q207" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R207" s="15"/>
       <c r="S207" s="15"/>
@@ -13945,7 +13945,7 @@
         <v>532</v>
       </c>
       <c r="Q208" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R208" s="15"/>
       <c r="S208" s="15"/>
@@ -14000,7 +14000,7 @@
         <v>532</v>
       </c>
       <c r="Q209" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R209" s="15"/>
       <c r="S209" s="15"/>
@@ -14055,7 +14055,7 @@
         <v>532</v>
       </c>
       <c r="Q210" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R210" s="15"/>
       <c r="S210" s="15"/>
@@ -14110,7 +14110,7 @@
         <v>532</v>
       </c>
       <c r="Q211" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R211" s="15"/>
       <c r="S211" s="15"/>
@@ -14163,7 +14163,7 @@
         <v>530</v>
       </c>
       <c r="Q212" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R212" s="15"/>
       <c r="S212" s="15">
@@ -14218,7 +14218,7 @@
         <v>530</v>
       </c>
       <c r="Q213" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R213" s="15"/>
       <c r="S213" s="15">
@@ -14273,7 +14273,7 @@
         <v>530</v>
       </c>
       <c r="Q214" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R214" s="15"/>
       <c r="S214" s="15">
@@ -14328,7 +14328,7 @@
         <v>530</v>
       </c>
       <c r="Q215" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R215" s="15"/>
       <c r="S215" s="15">
@@ -14383,7 +14383,7 @@
         <v>530</v>
       </c>
       <c r="Q216" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R216" s="15"/>
       <c r="S216" s="15">
@@ -14438,7 +14438,7 @@
         <v>530</v>
       </c>
       <c r="Q217" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R217" s="15"/>
       <c r="S217" s="15">
@@ -14493,7 +14493,7 @@
         <v>530</v>
       </c>
       <c r="Q218" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R218" s="15"/>
       <c r="S218" s="15">
@@ -14548,7 +14548,7 @@
         <v>530</v>
       </c>
       <c r="Q219" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R219" s="15"/>
       <c r="S219" s="15">
@@ -14603,7 +14603,7 @@
         <v>530</v>
       </c>
       <c r="Q220" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R220" s="15"/>
       <c r="S220" s="15">
@@ -14658,7 +14658,7 @@
         <v>530</v>
       </c>
       <c r="Q221" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R221" s="15"/>
       <c r="S221" s="15">
@@ -14713,7 +14713,7 @@
         <v>530</v>
       </c>
       <c r="Q222" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R222" s="15"/>
       <c r="S222" s="15">
@@ -14770,7 +14770,7 @@
         <v>530</v>
       </c>
       <c r="Q223" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R223" s="15">
         <v>100</v>
@@ -14829,7 +14829,7 @@
         <v>530</v>
       </c>
       <c r="Q224" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R224" s="15">
         <v>409</v>
@@ -14888,7 +14888,7 @@
         <v>530</v>
       </c>
       <c r="Q225" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R225" s="15">
         <v>370</v>
@@ -14947,7 +14947,7 @@
         <v>530</v>
       </c>
       <c r="Q226" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R226" s="15">
         <v>757</v>
@@ -15006,7 +15006,7 @@
         <v>530</v>
       </c>
       <c r="Q227" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R227" s="15">
         <v>451</v>
@@ -15065,7 +15065,7 @@
         <v>530</v>
       </c>
       <c r="Q228" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R228" s="15">
         <v>431</v>
@@ -15124,7 +15124,7 @@
         <v>530</v>
       </c>
       <c r="Q229" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R229" s="15">
         <v>296</v>
@@ -15183,7 +15183,7 @@
         <v>530</v>
       </c>
       <c r="Q230" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R230" s="15">
         <v>936</v>
@@ -15242,7 +15242,7 @@
         <v>530</v>
       </c>
       <c r="Q231" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R231" s="15">
         <v>190</v>
@@ -15301,7 +15301,7 @@
         <v>530</v>
       </c>
       <c r="Q232" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R232" s="15">
         <v>357</v>
@@ -15360,7 +15360,7 @@
         <v>530</v>
       </c>
       <c r="Q233" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R233" s="15">
         <v>389</v>
@@ -15419,7 +15419,7 @@
         <v>530</v>
       </c>
       <c r="Q234" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R234" s="15">
         <v>150</v>
@@ -15478,7 +15478,7 @@
         <v>530</v>
       </c>
       <c r="Q235" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R235" s="15">
         <v>300</v>
@@ -15531,7 +15531,7 @@
         <v>530</v>
       </c>
       <c r="Q236" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R236" s="15">
         <v>300</v>
@@ -15590,7 +15590,7 @@
         <v>530</v>
       </c>
       <c r="Q237" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R237" s="15">
         <v>150</v>
@@ -15649,7 +15649,7 @@
         <v>530</v>
       </c>
       <c r="Q238" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R238" s="15">
         <v>150</v>
@@ -15708,7 +15708,7 @@
         <v>530</v>
       </c>
       <c r="Q239" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R239" s="15">
         <v>300</v>
@@ -15767,7 +15767,7 @@
         <v>530</v>
       </c>
       <c r="Q240" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R240" s="15">
         <v>300</v>
@@ -15826,7 +15826,7 @@
         <v>530</v>
       </c>
       <c r="Q241" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R241" s="15">
         <v>300</v>
@@ -15879,7 +15879,7 @@
         <v>530</v>
       </c>
       <c r="Q242" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R242" s="15">
         <v>100</v>
@@ -15938,7 +15938,7 @@
         <v>530</v>
       </c>
       <c r="Q243" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R243" s="15">
         <v>800</v>
@@ -15997,7 +15997,7 @@
         <v>530</v>
       </c>
       <c r="Q244" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R244" s="15">
         <v>100</v>
@@ -16056,7 +16056,7 @@
         <v>530</v>
       </c>
       <c r="Q245" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R245" s="15">
         <v>200</v>
@@ -16115,7 +16115,7 @@
         <v>530</v>
       </c>
       <c r="Q246" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R246" s="15"/>
       <c r="S246" s="15"/>
@@ -16170,7 +16170,7 @@
         <v>530</v>
       </c>
       <c r="Q247" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R247" s="15"/>
       <c r="S247" s="15"/>
@@ -16225,7 +16225,7 @@
         <v>530</v>
       </c>
       <c r="Q248" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R248" s="15">
         <v>100</v>
@@ -16284,7 +16284,7 @@
         <v>530</v>
       </c>
       <c r="Q249" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R249" s="15">
         <v>100</v>
@@ -16343,7 +16343,7 @@
         <v>530</v>
       </c>
       <c r="Q250" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R250" s="15"/>
       <c r="S250" s="15"/>
@@ -16398,7 +16398,7 @@
         <v>530</v>
       </c>
       <c r="Q251" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R251" s="15"/>
       <c r="S251" s="15"/>
@@ -16453,7 +16453,7 @@
         <v>530</v>
       </c>
       <c r="Q252" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R252" s="15">
         <v>234</v>
@@ -16512,7 +16512,7 @@
         <v>530</v>
       </c>
       <c r="Q253" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R253" s="15"/>
       <c r="S253" s="15">
@@ -16569,7 +16569,7 @@
         <v>530</v>
       </c>
       <c r="Q254" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R254" s="15"/>
       <c r="S254" s="15">
@@ -16626,7 +16626,7 @@
         <v>530</v>
       </c>
       <c r="Q255" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R255" s="15"/>
       <c r="S255" s="15">
@@ -16683,7 +16683,7 @@
         <v>530</v>
       </c>
       <c r="Q256" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R256" s="15"/>
       <c r="S256" s="15">
@@ -16740,7 +16740,7 @@
         <v>530</v>
       </c>
       <c r="Q257" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R257" s="15"/>
       <c r="S257" s="15">
@@ -16797,7 +16797,7 @@
         <v>530</v>
       </c>
       <c r="Q258" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R258" s="15"/>
       <c r="S258" s="15">
@@ -16854,7 +16854,7 @@
         <v>530</v>
       </c>
       <c r="Q259" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R259" s="15"/>
       <c r="S259" s="15">
@@ -16911,7 +16911,7 @@
         <v>530</v>
       </c>
       <c r="Q260" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R260" s="15"/>
       <c r="S260" s="15">
@@ -16968,7 +16968,7 @@
         <v>530</v>
       </c>
       <c r="Q261" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R261" s="15"/>
       <c r="S261" s="15">
@@ -17025,7 +17025,7 @@
         <v>530</v>
       </c>
       <c r="Q262" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R262" s="15"/>
       <c r="S262" s="15">
@@ -17082,7 +17082,7 @@
         <v>530</v>
       </c>
       <c r="Q263" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R263" s="15"/>
       <c r="S263" s="15">
@@ -17139,7 +17139,7 @@
         <v>530</v>
       </c>
       <c r="Q264" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R264" s="15"/>
       <c r="S264" s="15">
@@ -17196,7 +17196,7 @@
         <v>530</v>
       </c>
       <c r="Q265" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R265" s="15"/>
       <c r="S265" s="15">
@@ -17253,7 +17253,7 @@
         <v>530</v>
       </c>
       <c r="Q266" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R266" s="15"/>
       <c r="S266" s="15">
@@ -17310,7 +17310,7 @@
         <v>530</v>
       </c>
       <c r="Q267" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R267" s="15"/>
       <c r="S267" s="15">
@@ -17367,7 +17367,7 @@
         <v>530</v>
       </c>
       <c r="Q268" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R268" s="15"/>
       <c r="S268" s="15">
@@ -17424,7 +17424,7 @@
         <v>532</v>
       </c>
       <c r="Q269" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R269" s="15">
         <v>500</v>
@@ -17483,7 +17483,7 @@
         <v>532</v>
       </c>
       <c r="Q270" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R270" s="15">
         <v>500</v>
@@ -17542,7 +17542,7 @@
         <v>532</v>
       </c>
       <c r="Q271" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R271" s="15">
         <v>500</v>
@@ -17601,7 +17601,7 @@
         <v>532</v>
       </c>
       <c r="Q272" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R272" s="15">
         <v>500</v>
@@ -17660,7 +17660,7 @@
         <v>532</v>
       </c>
       <c r="Q273" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R273" s="15">
         <v>500</v>
@@ -17719,7 +17719,7 @@
         <v>532</v>
       </c>
       <c r="Q274" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R274" s="15">
         <v>500</v>
@@ -17778,7 +17778,7 @@
         <v>532</v>
       </c>
       <c r="Q275" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R275" s="15">
         <v>500</v>
@@ -17837,7 +17837,7 @@
         <v>532</v>
       </c>
       <c r="Q276" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R276" s="15"/>
       <c r="S276" s="15">
@@ -17894,7 +17894,7 @@
         <v>532</v>
       </c>
       <c r="Q277" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R277" s="15">
         <v>500</v>
@@ -17953,7 +17953,7 @@
         <v>532</v>
       </c>
       <c r="Q278" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R278" s="15">
         <v>500</v>
@@ -18012,7 +18012,7 @@
         <v>532</v>
       </c>
       <c r="Q279" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R279" s="15">
         <v>500</v>
@@ -18071,7 +18071,7 @@
         <v>532</v>
       </c>
       <c r="Q280" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R280" s="15"/>
       <c r="S280" s="15">
@@ -18128,7 +18128,7 @@
         <v>532</v>
       </c>
       <c r="Q281" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R281" s="15">
         <v>500</v>
@@ -18187,7 +18187,7 @@
         <v>532</v>
       </c>
       <c r="Q282" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R282" s="15">
         <v>500</v>
@@ -18246,7 +18246,7 @@
         <v>532</v>
       </c>
       <c r="Q283" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R283" s="15">
         <v>500</v>
@@ -18305,7 +18305,7 @@
         <v>532</v>
       </c>
       <c r="Q284" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R284" s="15">
         <v>500</v>
@@ -18364,7 +18364,7 @@
         <v>532</v>
       </c>
       <c r="Q285" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R285" s="15">
         <v>500</v>
@@ -18423,7 +18423,7 @@
         <v>532</v>
       </c>
       <c r="Q286" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R286" s="15"/>
       <c r="S286" s="15">
@@ -18480,7 +18480,7 @@
         <v>532</v>
       </c>
       <c r="Q287" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R287" s="15"/>
       <c r="S287" s="15">
@@ -18537,7 +18537,7 @@
         <v>532</v>
       </c>
       <c r="Q288" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R288" s="15"/>
       <c r="S288" s="15">
@@ -18594,7 +18594,7 @@
         <v>532</v>
       </c>
       <c r="Q289" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R289" s="15"/>
       <c r="S289" s="15">
@@ -18651,7 +18651,7 @@
         <v>532</v>
       </c>
       <c r="Q290" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R290" s="15"/>
       <c r="S290" s="15">
@@ -18708,7 +18708,7 @@
         <v>532</v>
       </c>
       <c r="Q291" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R291" s="15">
         <v>500</v>
@@ -18767,7 +18767,7 @@
         <v>530</v>
       </c>
       <c r="Q292" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R292" s="15"/>
       <c r="S292" s="15">
@@ -18824,7 +18824,7 @@
         <v>530</v>
       </c>
       <c r="Q293" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R293" s="15"/>
       <c r="S293" s="15">
@@ -18881,7 +18881,7 @@
         <v>530</v>
       </c>
       <c r="Q294" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R294" s="15"/>
       <c r="S294" s="15">
@@ -18938,7 +18938,7 @@
         <v>530</v>
       </c>
       <c r="Q295" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R295" s="15"/>
       <c r="S295" s="15">
@@ -18995,7 +18995,7 @@
         <v>530</v>
       </c>
       <c r="Q296" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R296" s="15"/>
       <c r="S296" s="15">
@@ -19052,7 +19052,7 @@
         <v>530</v>
       </c>
       <c r="Q297" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R297" s="15"/>
       <c r="S297" s="15">
@@ -19109,7 +19109,7 @@
         <v>530</v>
       </c>
       <c r="Q298" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R298" s="15"/>
       <c r="S298" s="15">
@@ -19166,7 +19166,7 @@
         <v>530</v>
       </c>
       <c r="Q299" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R299" s="15"/>
       <c r="S299" s="15">
@@ -19223,7 +19223,7 @@
         <v>530</v>
       </c>
       <c r="Q300" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R300" s="15"/>
       <c r="S300" s="15">
@@ -19280,7 +19280,7 @@
         <v>530</v>
       </c>
       <c r="Q301" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R301" s="15"/>
       <c r="S301" s="15">
@@ -19337,7 +19337,7 @@
         <v>530</v>
       </c>
       <c r="Q302" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R302" s="15"/>
       <c r="S302" s="15">
@@ -19394,7 +19394,7 @@
         <v>530</v>
       </c>
       <c r="Q303" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R303" s="15"/>
       <c r="S303" s="15">
@@ -19451,7 +19451,7 @@
         <v>530</v>
       </c>
       <c r="Q304" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R304" s="15"/>
       <c r="S304" s="15">
@@ -19508,7 +19508,7 @@
         <v>530</v>
       </c>
       <c r="Q305" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R305" s="15"/>
       <c r="S305" s="15">
@@ -19565,7 +19565,7 @@
         <v>530</v>
       </c>
       <c r="Q306" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R306" s="15"/>
       <c r="S306" s="15">
@@ -19622,7 +19622,7 @@
         <v>530</v>
       </c>
       <c r="Q307" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R307" s="15"/>
       <c r="S307" s="15">
@@ -19679,7 +19679,7 @@
         <v>530</v>
       </c>
       <c r="Q308" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R308" s="15"/>
       <c r="S308" s="15">
@@ -19736,7 +19736,7 @@
         <v>530</v>
       </c>
       <c r="Q309" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R309" s="15"/>
       <c r="S309" s="15">
@@ -19793,7 +19793,7 @@
         <v>530</v>
       </c>
       <c r="Q310" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R310" s="15"/>
       <c r="S310" s="15">
@@ -19850,7 +19850,7 @@
         <v>530</v>
       </c>
       <c r="Q311" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R311" s="15"/>
       <c r="S311" s="15">
@@ -19907,7 +19907,7 @@
         <v>530</v>
       </c>
       <c r="Q312" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R312" s="15">
         <v>244</v>
@@ -19966,7 +19966,7 @@
         <v>530</v>
       </c>
       <c r="Q313" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R313" s="15">
         <v>468</v>
@@ -20025,7 +20025,7 @@
         <v>530</v>
       </c>
       <c r="Q314" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R314" s="15">
         <v>412</v>
@@ -20084,7 +20084,7 @@
         <v>530</v>
       </c>
       <c r="Q315" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R315" s="15">
         <v>426</v>
@@ -20143,7 +20143,7 @@
         <v>530</v>
       </c>
       <c r="Q316" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R316" s="15">
         <v>621</v>
@@ -20202,7 +20202,7 @@
         <v>530</v>
       </c>
       <c r="Q317" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R317" s="15">
         <v>325</v>
@@ -20261,7 +20261,7 @@
         <v>530</v>
       </c>
       <c r="Q318" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R318" s="15">
         <v>172</v>
@@ -20320,7 +20320,7 @@
         <v>530</v>
       </c>
       <c r="Q319" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R319" s="15">
         <v>84</v>
@@ -20379,7 +20379,7 @@
         <v>530</v>
       </c>
       <c r="Q320" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R320" s="15">
         <v>535</v>
@@ -20438,7 +20438,7 @@
         <v>530</v>
       </c>
       <c r="Q321" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R321" s="15">
         <v>328</v>
@@ -20497,7 +20497,7 @@
         <v>530</v>
       </c>
       <c r="Q322" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R322" s="15">
         <v>463</v>
@@ -20556,7 +20556,7 @@
         <v>530</v>
       </c>
       <c r="Q323" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R323" s="15">
         <v>559</v>
@@ -20615,7 +20615,7 @@
         <v>530</v>
       </c>
       <c r="Q324" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R324" s="15">
         <v>318</v>
@@ -20674,7 +20674,7 @@
         <v>530</v>
       </c>
       <c r="Q325" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R325" s="15">
         <v>59</v>
@@ -20733,7 +20733,7 @@
         <v>530</v>
       </c>
       <c r="Q326" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R326" s="15">
         <v>209</v>
@@ -20792,7 +20792,7 @@
         <v>530</v>
       </c>
       <c r="Q327" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R327" s="15">
         <v>308</v>
@@ -20851,7 +20851,7 @@
         <v>530</v>
       </c>
       <c r="Q328" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R328" s="15">
         <v>345</v>
@@ -20910,7 +20910,7 @@
         <v>530</v>
       </c>
       <c r="Q329" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R329" s="15">
         <v>453</v>
@@ -20969,7 +20969,7 @@
         <v>530</v>
       </c>
       <c r="Q330" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R330" s="15">
         <v>586</v>
@@ -21028,7 +21028,7 @@
         <v>530</v>
       </c>
       <c r="Q331" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R331" s="15">
         <v>591</v>
@@ -21087,7 +21087,7 @@
         <v>530</v>
       </c>
       <c r="Q332" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R332" s="15">
         <v>776</v>
@@ -21146,7 +21146,7 @@
         <v>530</v>
       </c>
       <c r="Q333" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R333" s="15">
         <v>520</v>
@@ -21205,7 +21205,7 @@
         <v>530</v>
       </c>
       <c r="Q334" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R334" s="15">
         <v>428</v>
@@ -21264,7 +21264,7 @@
         <v>530</v>
       </c>
       <c r="Q335" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R335" s="15">
         <v>421</v>
@@ -21323,7 +21323,7 @@
         <v>530</v>
       </c>
       <c r="Q336" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R336" s="15">
         <v>499</v>
@@ -21382,7 +21382,7 @@
         <v>530</v>
       </c>
       <c r="Q337" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R337" s="15">
         <v>478</v>
@@ -21441,7 +21441,7 @@
         <v>530</v>
       </c>
       <c r="Q338" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R338" s="15">
         <v>419</v>
@@ -21500,7 +21500,7 @@
         <v>530</v>
       </c>
       <c r="Q339" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R339" s="15">
         <v>360</v>
@@ -21559,7 +21559,7 @@
         <v>530</v>
       </c>
       <c r="Q340" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R340" s="15">
         <v>372</v>
@@ -21618,7 +21618,7 @@
         <v>530</v>
       </c>
       <c r="Q341" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R341" s="15">
         <v>283</v>
@@ -21677,7 +21677,7 @@
         <v>530</v>
       </c>
       <c r="Q342" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R342" s="15"/>
       <c r="S342" s="15"/>
@@ -21732,7 +21732,7 @@
         <v>530</v>
       </c>
       <c r="Q343" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R343" s="15"/>
       <c r="S343" s="15"/>
@@ -21787,7 +21787,7 @@
         <v>530</v>
       </c>
       <c r="Q344" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R344" s="15"/>
       <c r="S344" s="15"/>
@@ -21842,7 +21842,7 @@
         <v>530</v>
       </c>
       <c r="Q345" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R345" s="15"/>
       <c r="S345" s="15"/>
@@ -21897,7 +21897,7 @@
         <v>530</v>
       </c>
       <c r="Q346" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R346" s="15"/>
       <c r="S346" s="15"/>
@@ -21952,7 +21952,7 @@
         <v>530</v>
       </c>
       <c r="Q347" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R347" s="15"/>
       <c r="S347" s="15"/>
@@ -22007,7 +22007,7 @@
         <v>530</v>
       </c>
       <c r="Q348" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R348" s="15"/>
       <c r="S348" s="15"/>
@@ -22062,7 +22062,7 @@
         <v>530</v>
       </c>
       <c r="Q349" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R349" s="15"/>
       <c r="S349" s="15"/>
@@ -22117,7 +22117,7 @@
         <v>530</v>
       </c>
       <c r="Q350" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R350" s="15"/>
       <c r="S350" s="15"/>
@@ -22172,7 +22172,7 @@
         <v>530</v>
       </c>
       <c r="Q351" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R351" s="15"/>
       <c r="S351" s="15"/>
@@ -22227,7 +22227,7 @@
         <v>530</v>
       </c>
       <c r="Q352" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R352" s="15"/>
       <c r="S352" s="15"/>
@@ -22282,7 +22282,7 @@
         <v>530</v>
       </c>
       <c r="Q353" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R353" s="15"/>
       <c r="S353" s="15"/>
@@ -22337,7 +22337,7 @@
         <v>530</v>
       </c>
       <c r="Q354" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R354" s="15"/>
       <c r="S354" s="15"/>
@@ -22392,7 +22392,7 @@
         <v>530</v>
       </c>
       <c r="Q355" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R355" s="15"/>
       <c r="S355" s="15"/>
@@ -22447,7 +22447,7 @@
         <v>530</v>
       </c>
       <c r="Q356" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R356" s="15"/>
       <c r="S356" s="15"/>
@@ -22502,7 +22502,7 @@
         <v>530</v>
       </c>
       <c r="Q357" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R357" s="15"/>
       <c r="S357" s="15"/>
@@ -22557,7 +22557,7 @@
         <v>530</v>
       </c>
       <c r="Q358" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R358" s="15"/>
       <c r="S358" s="15"/>
@@ -22612,7 +22612,7 @@
         <v>530</v>
       </c>
       <c r="Q359" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R359" s="15"/>
       <c r="S359" s="15"/>
@@ -22667,7 +22667,7 @@
         <v>530</v>
       </c>
       <c r="Q360" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R360" s="15"/>
       <c r="S360" s="15"/>
@@ -22722,7 +22722,7 @@
         <v>530</v>
       </c>
       <c r="Q361" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R361" s="15"/>
       <c r="S361" s="15"/>
@@ -22777,7 +22777,7 @@
         <v>530</v>
       </c>
       <c r="Q362" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R362" s="15"/>
       <c r="S362" s="15"/>
@@ -22832,7 +22832,7 @@
         <v>530</v>
       </c>
       <c r="Q363" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R363" s="15"/>
       <c r="S363" s="15"/>
@@ -22887,7 +22887,7 @@
         <v>530</v>
       </c>
       <c r="Q364" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R364" s="15"/>
       <c r="S364" s="15"/>
@@ -22942,7 +22942,7 @@
         <v>530</v>
       </c>
       <c r="Q365" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R365" s="15"/>
       <c r="S365" s="15"/>
@@ -22997,7 +22997,7 @@
         <v>530</v>
       </c>
       <c r="Q366" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R366" s="15"/>
       <c r="S366" s="15"/>
@@ -23052,7 +23052,7 @@
         <v>530</v>
       </c>
       <c r="Q367" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R367" s="15"/>
       <c r="S367" s="15"/>
@@ -23107,7 +23107,7 @@
         <v>530</v>
       </c>
       <c r="Q368" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R368" s="15"/>
       <c r="S368" s="15"/>
@@ -23162,7 +23162,7 @@
         <v>530</v>
       </c>
       <c r="Q369" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R369" s="15"/>
       <c r="S369" s="15"/>
@@ -23217,7 +23217,7 @@
         <v>530</v>
       </c>
       <c r="Q370" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R370" s="15"/>
       <c r="S370" s="15"/>
@@ -23272,7 +23272,7 @@
         <v>530</v>
       </c>
       <c r="Q371" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R371" s="15"/>
       <c r="S371" s="15"/>
@@ -23327,7 +23327,7 @@
         <v>530</v>
       </c>
       <c r="Q372" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R372" s="15"/>
       <c r="S372" s="15"/>
@@ -23382,7 +23382,7 @@
         <v>530</v>
       </c>
       <c r="Q373" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R373" s="15"/>
       <c r="S373" s="15"/>
@@ -23437,7 +23437,7 @@
         <v>530</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R374" s="15"/>
       <c r="S374" s="15"/>
@@ -23492,7 +23492,7 @@
         <v>530</v>
       </c>
       <c r="Q375" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R375" s="15"/>
       <c r="S375" s="15"/>
@@ -23547,7 +23547,7 @@
         <v>529</v>
       </c>
       <c r="Q376" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R376" s="15"/>
       <c r="S376" s="15"/>
@@ -23602,7 +23602,7 @@
         <v>529</v>
       </c>
       <c r="Q377" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R377" s="15"/>
       <c r="S377" s="15"/>
@@ -23657,7 +23657,7 @@
         <v>529</v>
       </c>
       <c r="Q378" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R378" s="15"/>
       <c r="S378" s="15"/>
@@ -23712,7 +23712,7 @@
         <v>529</v>
       </c>
       <c r="Q379" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R379" s="15"/>
       <c r="S379" s="15"/>
@@ -23767,7 +23767,7 @@
         <v>529</v>
       </c>
       <c r="Q380" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R380" s="15"/>
       <c r="S380" s="15"/>
@@ -23822,7 +23822,7 @@
         <v>529</v>
       </c>
       <c r="Q381" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R381" s="15"/>
       <c r="S381" s="15"/>
@@ -23877,7 +23877,7 @@
         <v>529</v>
       </c>
       <c r="Q382" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R382" s="15"/>
       <c r="S382" s="15"/>
@@ -23932,7 +23932,7 @@
         <v>529</v>
       </c>
       <c r="Q383" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R383" s="15"/>
       <c r="S383" s="15"/>
@@ -23987,7 +23987,7 @@
         <v>529</v>
       </c>
       <c r="Q384" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R384" s="15"/>
       <c r="S384" s="15"/>
@@ -24042,7 +24042,7 @@
         <v>529</v>
       </c>
       <c r="Q385" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R385" s="15"/>
       <c r="S385" s="15"/>
@@ -24097,7 +24097,7 @@
         <v>529</v>
       </c>
       <c r="Q386" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R386" s="15"/>
       <c r="S386" s="15"/>
@@ -24152,7 +24152,7 @@
         <v>529</v>
       </c>
       <c r="Q387" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R387" s="15"/>
       <c r="S387" s="15"/>
@@ -24207,7 +24207,7 @@
         <v>529</v>
       </c>
       <c r="Q388" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R388" s="15"/>
       <c r="S388" s="15"/>
@@ -24262,7 +24262,7 @@
         <v>529</v>
       </c>
       <c r="Q389" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R389" s="15"/>
       <c r="S389" s="15"/>
@@ -24317,7 +24317,7 @@
         <v>529</v>
       </c>
       <c r="Q390" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R390" s="15"/>
       <c r="S390" s="15"/>
@@ -24372,7 +24372,7 @@
         <v>529</v>
       </c>
       <c r="Q391" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R391" s="15"/>
       <c r="S391" s="15"/>
@@ -24427,7 +24427,7 @@
         <v>529</v>
       </c>
       <c r="Q392" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R392" s="15"/>
       <c r="S392" s="15"/>
@@ -24482,7 +24482,7 @@
         <v>529</v>
       </c>
       <c r="Q393" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R393" s="15"/>
       <c r="S393" s="15"/>
@@ -24537,7 +24537,7 @@
         <v>529</v>
       </c>
       <c r="Q394" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R394" s="15"/>
       <c r="S394" s="15"/>
@@ -24592,7 +24592,7 @@
         <v>529</v>
       </c>
       <c r="Q395" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R395" s="15"/>
       <c r="S395" s="15"/>
@@ -24647,7 +24647,7 @@
         <v>529</v>
       </c>
       <c r="Q396" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R396" s="15"/>
       <c r="S396" s="15"/>
@@ -24702,7 +24702,7 @@
         <v>529</v>
       </c>
       <c r="Q397" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R397" s="15"/>
       <c r="S397" s="15"/>
@@ -24757,7 +24757,7 @@
         <v>529</v>
       </c>
       <c r="Q398" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R398" s="15"/>
       <c r="S398" s="15"/>
@@ -24812,7 +24812,7 @@
         <v>530</v>
       </c>
       <c r="Q399" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R399" s="15"/>
       <c r="S399" s="15"/>
@@ -24867,7 +24867,7 @@
         <v>530</v>
       </c>
       <c r="Q400" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R400" s="15"/>
       <c r="S400" s="15"/>
@@ -24922,7 +24922,7 @@
         <v>530</v>
       </c>
       <c r="Q401" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R401" s="15">
         <v>600</v>
@@ -24981,7 +24981,7 @@
         <v>529</v>
       </c>
       <c r="Q402" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R402" s="15">
         <v>300</v>
@@ -25040,7 +25040,7 @@
         <v>529</v>
       </c>
       <c r="Q403" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R403" s="15">
         <v>150</v>
@@ -25099,7 +25099,7 @@
         <v>529</v>
       </c>
       <c r="Q404" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R404" s="15">
         <v>150</v>
@@ -25158,7 +25158,7 @@
         <v>529</v>
       </c>
       <c r="Q405" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R405" s="15">
         <v>150</v>
@@ -25217,7 +25217,7 @@
         <v>529</v>
       </c>
       <c r="Q406" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R406" s="15">
         <v>200</v>
@@ -25276,7 +25276,7 @@
         <v>529</v>
       </c>
       <c r="Q407" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R407" s="15">
         <v>800</v>
@@ -25335,7 +25335,7 @@
         <v>529</v>
       </c>
       <c r="Q408" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R408" s="15">
         <v>150</v>
@@ -25394,7 +25394,7 @@
         <v>529</v>
       </c>
       <c r="Q409" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R409" s="15">
         <v>400</v>
@@ -25453,7 +25453,7 @@
         <v>529</v>
       </c>
       <c r="Q410" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R410" s="15">
         <v>300</v>
@@ -25512,7 +25512,7 @@
         <v>529</v>
       </c>
       <c r="Q411" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R411" s="15">
         <v>150</v>
@@ -25571,7 +25571,7 @@
         <v>529</v>
       </c>
       <c r="Q412" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R412" s="15">
         <v>150</v>
@@ -25630,7 +25630,7 @@
         <v>529</v>
       </c>
       <c r="Q413" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R413" s="15">
         <v>800</v>
@@ -25689,7 +25689,7 @@
         <v>529</v>
       </c>
       <c r="Q414" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R414" s="15">
         <v>150</v>
@@ -25748,7 +25748,7 @@
         <v>529</v>
       </c>
       <c r="Q415" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R415" s="15">
         <v>300</v>
@@ -25807,7 +25807,7 @@
         <v>529</v>
       </c>
       <c r="Q416" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R416" s="15">
         <v>150</v>
@@ -25866,7 +25866,7 @@
         <v>529</v>
       </c>
       <c r="Q417" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R417" s="15">
         <v>800</v>
@@ -25925,7 +25925,7 @@
         <v>529</v>
       </c>
       <c r="Q418" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R418" s="15">
         <v>800</v>
@@ -25984,7 +25984,7 @@
         <v>529</v>
       </c>
       <c r="Q419" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R419" s="15">
         <v>800</v>
@@ -26043,7 +26043,7 @@
         <v>529</v>
       </c>
       <c r="Q420" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R420" s="15">
         <v>150</v>
@@ -26102,7 +26102,7 @@
         <v>529</v>
       </c>
       <c r="Q421" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R421" s="15">
         <v>150</v>
@@ -26161,7 +26161,7 @@
         <v>529</v>
       </c>
       <c r="Q422" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R422" s="15">
         <v>150</v>
@@ -26220,7 +26220,7 @@
         <v>529</v>
       </c>
       <c r="Q423" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R423" s="15">
         <v>300</v>
@@ -26279,7 +26279,7 @@
         <v>529</v>
       </c>
       <c r="Q424" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R424" s="15">
         <v>300</v>
@@ -26338,7 +26338,7 @@
         <v>529</v>
       </c>
       <c r="Q425" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R425" s="15">
         <v>150</v>
@@ -26397,7 +26397,7 @@
         <v>529</v>
       </c>
       <c r="Q426" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R426" s="15">
         <v>300</v>
@@ -26456,7 +26456,7 @@
         <v>529</v>
       </c>
       <c r="Q427" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R427" s="15">
         <v>150</v>
@@ -26515,7 +26515,7 @@
         <v>529</v>
       </c>
       <c r="Q428" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R428" s="15">
         <v>150</v>
@@ -26574,7 +26574,7 @@
         <v>529</v>
       </c>
       <c r="Q429" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R429" s="15">
         <v>300</v>
@@ -26633,7 +26633,7 @@
         <v>529</v>
       </c>
       <c r="Q430" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R430" s="15">
         <v>150</v>
@@ -26692,7 +26692,7 @@
         <v>529</v>
       </c>
       <c r="Q431" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R431" s="15">
         <v>150</v>
@@ -26751,7 +26751,7 @@
         <v>529</v>
       </c>
       <c r="Q432" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R432" s="15">
         <v>150</v>
@@ -26810,7 +26810,7 @@
         <v>529</v>
       </c>
       <c r="Q433" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R433" s="15">
         <v>300</v>
@@ -26869,7 +26869,7 @@
         <v>529</v>
       </c>
       <c r="Q434" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R434" s="15">
         <v>200</v>
@@ -26928,7 +26928,7 @@
         <v>529</v>
       </c>
       <c r="Q435" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R435" s="15">
         <v>150</v>
@@ -26987,7 +26987,7 @@
         <v>529</v>
       </c>
       <c r="Q436" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R436" s="15">
         <v>300</v>
@@ -27046,7 +27046,7 @@
         <v>529</v>
       </c>
       <c r="Q437" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R437" s="15">
         <v>300</v>
@@ -27105,7 +27105,7 @@
         <v>529</v>
       </c>
       <c r="Q438" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R438" s="15">
         <v>750</v>
@@ -27164,7 +27164,7 @@
         <v>529</v>
       </c>
       <c r="Q439" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R439" s="15">
         <v>100</v>
@@ -27223,7 +27223,7 @@
         <v>529</v>
       </c>
       <c r="Q440" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R440" s="15">
         <v>100</v>
@@ -27282,7 +27282,7 @@
         <v>530</v>
       </c>
       <c r="Q441" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R441" s="15">
         <v>150</v>
@@ -27341,7 +27341,7 @@
         <v>530</v>
       </c>
       <c r="Q442" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R442" s="15">
         <v>300</v>
@@ -27400,7 +27400,7 @@
         <v>530</v>
       </c>
       <c r="Q443" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R443" s="15">
         <v>150</v>
@@ -27459,7 +27459,7 @@
         <v>530</v>
       </c>
       <c r="Q444" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R444" s="15">
         <v>150</v>
@@ -27518,7 +27518,7 @@
         <v>530</v>
       </c>
       <c r="Q445" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R445" s="15">
         <v>150</v>
@@ -27577,7 +27577,7 @@
         <v>530</v>
       </c>
       <c r="Q446" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R446" s="15">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>530</v>
       </c>
       <c r="Q447" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R447" s="15">
         <v>150</v>
@@ -27695,7 +27695,7 @@
         <v>530</v>
       </c>
       <c r="Q448" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R448" s="15">
         <v>100</v>
@@ -27754,7 +27754,7 @@
         <v>530</v>
       </c>
       <c r="Q449" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R449" s="15">
         <v>100</v>
@@ -27813,7 +27813,7 @@
         <v>530</v>
       </c>
       <c r="Q450" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R450" s="15">
         <v>100</v>
@@ -27872,7 +27872,7 @@
         <v>530</v>
       </c>
       <c r="Q451" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R451" s="15">
         <v>100</v>
@@ -27931,7 +27931,7 @@
         <v>530</v>
       </c>
       <c r="Q452" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R452" s="15">
         <v>100</v>
@@ -27990,7 +27990,7 @@
         <v>530</v>
       </c>
       <c r="Q453" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R453" s="15">
         <v>100</v>
@@ -28049,7 +28049,7 @@
         <v>530</v>
       </c>
       <c r="Q454" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R454" s="15">
         <v>100</v>
@@ -28108,7 +28108,7 @@
         <v>530</v>
       </c>
       <c r="Q455" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R455" s="15">
         <v>100</v>
@@ -28167,7 +28167,7 @@
         <v>530</v>
       </c>
       <c r="Q456" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R456" s="15">
         <v>100</v>
@@ -28226,7 +28226,7 @@
         <v>530</v>
       </c>
       <c r="Q457" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R457" s="15">
         <v>300</v>
@@ -28285,7 +28285,7 @@
         <v>530</v>
       </c>
       <c r="Q458" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R458" s="15">
         <v>100</v>
@@ -28344,7 +28344,7 @@
         <v>530</v>
       </c>
       <c r="Q459" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R459" s="15">
         <v>100</v>
@@ -28403,7 +28403,7 @@
         <v>530</v>
       </c>
       <c r="Q460" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R460" s="15">
         <v>100</v>
@@ -28462,7 +28462,7 @@
         <v>530</v>
       </c>
       <c r="Q461" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R461" s="15">
         <v>100</v>
@@ -28521,7 +28521,7 @@
         <v>530</v>
       </c>
       <c r="Q462" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R462" s="15">
         <v>100</v>
@@ -28580,7 +28580,7 @@
         <v>530</v>
       </c>
       <c r="Q463" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R463" s="15">
         <v>100</v>
@@ -28639,7 +28639,7 @@
         <v>530</v>
       </c>
       <c r="Q464" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R464" s="15">
         <v>100</v>
@@ -28698,7 +28698,7 @@
         <v>530</v>
       </c>
       <c r="Q465" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R465" s="15">
         <v>100</v>
@@ -28757,7 +28757,7 @@
         <v>530</v>
       </c>
       <c r="Q466" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R466" s="15">
         <v>100</v>
@@ -28816,7 +28816,7 @@
         <v>530</v>
       </c>
       <c r="Q467" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R467" s="15">
         <v>100</v>
@@ -28875,7 +28875,7 @@
         <v>530</v>
       </c>
       <c r="Q468" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R468" s="15">
         <v>100</v>
@@ -28934,7 +28934,7 @@
         <v>530</v>
       </c>
       <c r="Q469" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R469" s="15">
         <v>100</v>
@@ -28993,7 +28993,7 @@
         <v>530</v>
       </c>
       <c r="Q470" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R470" s="15">
         <v>100</v>
@@ -29052,7 +29052,7 @@
         <v>530</v>
       </c>
       <c r="Q471" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R471" s="15">
         <v>100</v>
@@ -29111,7 +29111,7 @@
         <v>530</v>
       </c>
       <c r="Q472" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R472" s="15">
         <v>100</v>
@@ -29170,7 +29170,7 @@
         <v>530</v>
       </c>
       <c r="Q473" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R473" s="15">
         <v>100</v>
@@ -29229,7 +29229,7 @@
         <v>530</v>
       </c>
       <c r="Q474" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R474" s="15">
         <v>100</v>
@@ -29288,7 +29288,7 @@
         <v>530</v>
       </c>
       <c r="Q475" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R475" s="15">
         <v>100</v>
@@ -29347,7 +29347,7 @@
         <v>529</v>
       </c>
       <c r="Q476" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R476" s="15">
         <v>100</v>
@@ -29406,7 +29406,7 @@
         <v>529</v>
       </c>
       <c r="Q477" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R477" s="15">
         <v>100</v>
@@ -29465,7 +29465,7 @@
         <v>529</v>
       </c>
       <c r="Q478" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R478" s="15">
         <v>100</v>
@@ -29524,7 +29524,7 @@
         <v>529</v>
       </c>
       <c r="Q479" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R479" s="15">
         <v>100</v>
@@ -29583,7 +29583,7 @@
         <v>530</v>
       </c>
       <c r="Q480" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R480" s="15">
         <v>100</v>
@@ -29642,7 +29642,7 @@
         <v>530</v>
       </c>
       <c r="Q481" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R481" s="15">
         <v>100</v>
@@ -29701,7 +29701,7 @@
         <v>530</v>
       </c>
       <c r="Q482" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R482" s="15">
         <v>300</v>
@@ -29760,7 +29760,7 @@
         <v>530</v>
       </c>
       <c r="Q483" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R483" s="15">
         <v>50</v>
@@ -29819,7 +29819,7 @@
         <v>530</v>
       </c>
       <c r="Q484" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R484" s="15">
         <v>50</v>
@@ -29878,7 +29878,7 @@
         <v>530</v>
       </c>
       <c r="Q485" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R485" s="15">
         <v>100</v>
@@ -29937,7 +29937,7 @@
         <v>530</v>
       </c>
       <c r="Q486" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R486" s="15">
         <v>328</v>
@@ -29996,7 +29996,7 @@
         <v>530</v>
       </c>
       <c r="Q487" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R487" s="15">
         <v>370</v>
@@ -30055,7 +30055,7 @@
         <v>530</v>
       </c>
       <c r="Q488" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R488" s="15">
         <v>283</v>
@@ -30114,7 +30114,7 @@
         <v>530</v>
       </c>
       <c r="Q489" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R489" s="15">
         <v>209</v>
@@ -30173,7 +30173,7 @@
         <v>530</v>
       </c>
       <c r="Q490" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R490" s="15">
         <v>365</v>
@@ -30232,7 +30232,7 @@
         <v>530</v>
       </c>
       <c r="Q491" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R491" s="15">
         <v>382</v>
@@ -30291,7 +30291,7 @@
         <v>530</v>
       </c>
       <c r="Q492" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R492" s="15">
         <v>276</v>
@@ -30350,7 +30350,7 @@
         <v>530</v>
       </c>
       <c r="Q493" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R493" s="15">
         <v>372</v>
@@ -30409,7 +30409,7 @@
         <v>530</v>
       </c>
       <c r="Q494" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R494" s="15">
         <v>752</v>
@@ -30468,7 +30468,7 @@
         <v>532</v>
       </c>
       <c r="Q495" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R495" s="15">
         <v>106</v>
@@ -30527,7 +30527,7 @@
         <v>532</v>
       </c>
       <c r="Q496" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R496" s="15">
         <v>129</v>
@@ -30586,7 +30586,7 @@
         <v>532</v>
       </c>
       <c r="Q497" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R497" s="15">
         <v>192</v>
@@ -30645,7 +30645,7 @@
         <v>532</v>
       </c>
       <c r="Q498" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R498" s="15">
         <v>291</v>
@@ -30704,7 +30704,7 @@
         <v>532</v>
       </c>
       <c r="Q499" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R499" s="15">
         <v>306</v>
@@ -30763,7 +30763,7 @@
         <v>530</v>
       </c>
       <c r="Q500" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R500" s="15">
         <v>308</v>
@@ -30822,7 +30822,7 @@
         <v>532</v>
       </c>
       <c r="Q501" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R501" s="15">
         <v>377</v>
@@ -30881,7 +30881,7 @@
         <v>532</v>
       </c>
       <c r="Q502" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R502" s="15">
         <v>424</v>
@@ -30940,7 +30940,7 @@
         <v>532</v>
       </c>
       <c r="Q503" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R503" s="15">
         <v>955</v>
@@ -30999,7 +30999,7 @@
         <v>532</v>
       </c>
       <c r="Q504" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R504" s="15">
         <v>431</v>
@@ -31058,7 +31058,7 @@
         <v>530</v>
       </c>
       <c r="Q505" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R505" s="15">
         <v>333</v>
@@ -31117,7 +31117,7 @@
         <v>530</v>
       </c>
       <c r="Q506" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R506" s="15">
         <v>463</v>
@@ -31176,7 +31176,7 @@
         <v>530</v>
       </c>
       <c r="Q507" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R507" s="15">
         <v>340</v>
@@ -31235,7 +31235,7 @@
         <v>530</v>
       </c>
       <c r="Q508" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R508" s="15">
         <v>503</v>
@@ -31294,7 +31294,7 @@
         <v>530</v>
       </c>
       <c r="Q509" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R509" s="15">
         <v>192</v>
@@ -31353,7 +31353,7 @@
         <v>530</v>
       </c>
       <c r="Q510" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R510" s="15">
         <v>163</v>
@@ -31412,7 +31412,7 @@
         <v>530</v>
       </c>
       <c r="Q511" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R511" s="15">
         <v>554</v>
@@ -31471,7 +31471,7 @@
         <v>530</v>
       </c>
       <c r="Q512" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R512" s="15">
         <v>448</v>
@@ -31530,7 +31530,7 @@
         <v>530</v>
       </c>
       <c r="Q513" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R513" s="15">
         <v>205</v>
@@ -31589,7 +31589,7 @@
         <v>530</v>
       </c>
       <c r="Q514" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R514" s="15">
         <v>426</v>
@@ -31648,7 +31648,7 @@
         <v>530</v>
       </c>
       <c r="Q515" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R515" s="15">
         <v>300</v>
@@ -31707,7 +31707,7 @@
         <v>530</v>
       </c>
       <c r="Q516" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R516" s="15">
         <v>567</v>
@@ -31766,7 +31766,7 @@
         <v>530</v>
       </c>
       <c r="Q517" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R517" s="15">
         <v>185</v>
@@ -31825,7 +31825,7 @@
         <v>530</v>
       </c>
       <c r="Q518" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R518" s="15">
         <v>207</v>
@@ -31884,7 +31884,7 @@
         <v>530</v>
       </c>
       <c r="Q519" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R519" s="15">
         <v>217</v>
@@ -31943,7 +31943,7 @@
         <v>530</v>
       </c>
       <c r="Q520" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R520" s="15">
         <v>234</v>
@@ -32002,7 +32002,7 @@
         <v>530</v>
       </c>
       <c r="Q521" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R521" s="15">
         <v>259</v>
@@ -32061,7 +32061,7 @@
         <v>530</v>
       </c>
       <c r="Q522" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R522" s="15">
         <v>407</v>
@@ -32120,7 +32120,7 @@
         <v>530</v>
       </c>
       <c r="Q523" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R523" s="15">
         <v>283</v>
@@ -32179,7 +32179,7 @@
         <v>530</v>
       </c>
       <c r="Q524" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R524" s="15">
         <v>266</v>
@@ -32238,7 +32238,7 @@
         <v>530</v>
       </c>
       <c r="Q525" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R525" s="15">
         <v>286</v>
@@ -32297,7 +32297,7 @@
         <v>530</v>
       </c>
       <c r="Q526" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R526" s="15">
         <v>296</v>
@@ -32356,7 +32356,7 @@
         <v>530</v>
       </c>
       <c r="Q527" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R527" s="15">
         <v>759</v>
@@ -32415,7 +32415,7 @@
         <v>530</v>
       </c>
       <c r="Q528" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R528" s="15">
         <v>308</v>
@@ -32474,7 +32474,7 @@
         <v>530</v>
       </c>
       <c r="Q529" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R529" s="15">
         <v>505</v>
@@ -32533,7 +32533,7 @@
         <v>530</v>
       </c>
       <c r="Q530" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R530" s="15">
         <v>522</v>
@@ -32592,7 +32592,7 @@
         <v>530</v>
       </c>
       <c r="Q531" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R531" s="15">
         <v>481</v>
@@ -32651,7 +32651,7 @@
         <v>530</v>
       </c>
       <c r="Q532" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R532" s="15">
         <v>468</v>
@@ -32710,7 +32710,7 @@
         <v>530</v>
       </c>
       <c r="Q533" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R533" s="15">
         <v>611</v>
@@ -32769,7 +32769,7 @@
         <v>530</v>
       </c>
       <c r="Q534" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R534" s="15"/>
       <c r="S534" s="15">
@@ -32826,7 +32826,7 @@
         <v>530</v>
       </c>
       <c r="Q535" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R535" s="15"/>
       <c r="S535" s="15">
@@ -32883,7 +32883,7 @@
         <v>530</v>
       </c>
       <c r="Q536" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R536" s="15"/>
       <c r="S536" s="15">
@@ -32940,7 +32940,7 @@
         <v>530</v>
       </c>
       <c r="Q537" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R537" s="15"/>
       <c r="S537" s="15">
@@ -32997,7 +32997,7 @@
         <v>530</v>
       </c>
       <c r="Q538" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R538" s="15"/>
       <c r="S538" s="15">
@@ -33054,7 +33054,7 @@
         <v>530</v>
       </c>
       <c r="Q539" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R539" s="15"/>
       <c r="S539" s="15">
@@ -33111,7 +33111,7 @@
         <v>530</v>
       </c>
       <c r="Q540" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R540" s="15"/>
       <c r="S540" s="15">
@@ -33168,7 +33168,7 @@
         <v>530</v>
       </c>
       <c r="Q541" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R541" s="15"/>
       <c r="S541" s="15">
@@ -33225,7 +33225,7 @@
         <v>530</v>
       </c>
       <c r="Q542" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R542" s="15">
         <v>300</v>
@@ -33284,7 +33284,7 @@
         <v>530</v>
       </c>
       <c r="Q543" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R543" s="15"/>
       <c r="S543" s="15"/>
@@ -33339,7 +33339,7 @@
         <v>530</v>
       </c>
       <c r="Q544" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R544" s="15"/>
       <c r="S544" s="15"/>
@@ -33394,7 +33394,7 @@
         <v>530</v>
       </c>
       <c r="Q545" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R545" s="15"/>
       <c r="S545" s="15"/>
@@ -33449,7 +33449,7 @@
         <v>530</v>
       </c>
       <c r="Q546" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R546" s="15"/>
       <c r="S546" s="15"/>
@@ -33504,7 +33504,7 @@
         <v>530</v>
       </c>
       <c r="Q547" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R547" s="15"/>
       <c r="S547" s="15"/>
@@ -33559,7 +33559,7 @@
         <v>530</v>
       </c>
       <c r="Q548" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R548" s="15"/>
       <c r="S548" s="15"/>
@@ -33614,7 +33614,7 @@
         <v>530</v>
       </c>
       <c r="Q549" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R549" s="15"/>
       <c r="S549" s="15"/>
@@ -33669,7 +33669,7 @@
         <v>530</v>
       </c>
       <c r="Q550" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R550" s="15"/>
       <c r="S550" s="15"/>
@@ -33724,7 +33724,7 @@
         <v>530</v>
       </c>
       <c r="Q551" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R551" s="15"/>
       <c r="S551" s="15"/>
@@ -33779,7 +33779,7 @@
         <v>530</v>
       </c>
       <c r="Q552" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R552" s="15"/>
       <c r="S552" s="15"/>
@@ -33834,7 +33834,7 @@
         <v>530</v>
       </c>
       <c r="Q553" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R553" s="15"/>
       <c r="S553" s="15"/>
@@ -33889,7 +33889,7 @@
         <v>530</v>
       </c>
       <c r="Q554" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R554" s="15"/>
       <c r="S554" s="15">

--- a/scr/data/20240905_finish_batch3.xlsx
+++ b/scr/data/20240905_finish_batch3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuduong\Learning\test_cutting_stock_optima\scr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27154900-6E3C-4C5E-A0AB-96A7EEF3044E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD1CDCC-4017-4A32-8458-EE1B8BEBFBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{97E9A37B-168E-4DB2-9422-951A4AE0FE8F}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4997" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4997" uniqueCount="554">
   <si>
     <t>customer_name</t>
   </si>
@@ -1725,13 +1725,16 @@
     <t>small</t>
   </si>
   <si>
-    <t>medium-big</t>
-  </si>
-  <si>
     <t>small-medium</t>
   </si>
   <si>
     <t>standard</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>medium</t>
   </si>
 </sst>
 </file>
@@ -2306,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BB3797-9B7D-400C-A811-52216776806E}">
   <dimension ref="A1:S554"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2376,7 +2379,7 @@
         <v>548</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>533</v>
@@ -2600,7 +2603,7 @@
         <v>530</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
@@ -2710,7 +2713,7 @@
         <v>530</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
@@ -2765,7 +2768,7 @@
         <v>530</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
@@ -2820,7 +2823,7 @@
         <v>530</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
@@ -2875,7 +2878,7 @@
         <v>530</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
@@ -2985,7 +2988,7 @@
         <v>530</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
@@ -3150,7 +3153,7 @@
         <v>530</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
@@ -3315,7 +3318,7 @@
         <v>530</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
@@ -3700,7 +3703,7 @@
         <v>530</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R25" s="15"/>
       <c r="S25" s="15"/>
@@ -3810,7 +3813,7 @@
         <v>530</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
@@ -3865,7 +3868,7 @@
         <v>530</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
@@ -3920,7 +3923,7 @@
         <v>530</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
@@ -4085,7 +4088,7 @@
         <v>530</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R32" s="15"/>
       <c r="S32" s="15"/>
@@ -4140,7 +4143,7 @@
         <v>530</v>
       </c>
       <c r="Q33" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R33" s="15"/>
       <c r="S33" s="15"/>
@@ -4195,7 +4198,7 @@
         <v>530</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R34" s="15"/>
       <c r="S34" s="15"/>
@@ -4250,7 +4253,7 @@
         <v>530</v>
       </c>
       <c r="Q35" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
@@ -4525,7 +4528,7 @@
         <v>530</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
@@ -4580,7 +4583,7 @@
         <v>530</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R41" s="15">
         <v>246</v>
@@ -4639,7 +4642,7 @@
         <v>530</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R42" s="15">
         <v>343</v>
@@ -4698,7 +4701,7 @@
         <v>530</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R43" s="15">
         <v>222</v>
@@ -4757,7 +4760,7 @@
         <v>530</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R44" s="15">
         <v>308</v>
@@ -4816,7 +4819,7 @@
         <v>530</v>
       </c>
       <c r="Q45" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R45" s="15">
         <v>419</v>
@@ -4875,7 +4878,7 @@
         <v>530</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R46" s="15">
         <v>148</v>
@@ -4934,7 +4937,7 @@
         <v>530</v>
       </c>
       <c r="Q47" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R47" s="15">
         <v>352</v>
@@ -4993,7 +4996,7 @@
         <v>530</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R48" s="15">
         <v>291</v>
@@ -5052,7 +5055,7 @@
         <v>530</v>
       </c>
       <c r="Q49" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R49" s="15">
         <v>377</v>
@@ -5111,7 +5114,7 @@
         <v>530</v>
       </c>
       <c r="Q50" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R50" s="15">
         <v>604</v>
@@ -5170,7 +5173,7 @@
         <v>530</v>
       </c>
       <c r="Q51" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R51" s="15">
         <v>209</v>
@@ -5229,7 +5232,7 @@
         <v>530</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R52" s="15">
         <v>100</v>
@@ -5288,7 +5291,7 @@
         <v>530</v>
       </c>
       <c r="Q53" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R53" s="15">
         <v>100</v>
@@ -5347,7 +5350,7 @@
         <v>530</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R54" s="15">
         <v>100</v>
@@ -5406,7 +5409,7 @@
         <v>530</v>
       </c>
       <c r="Q55" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R55" s="15">
         <v>100</v>
@@ -5465,7 +5468,7 @@
         <v>530</v>
       </c>
       <c r="Q56" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R56" s="15"/>
       <c r="S56" s="15">
@@ -5522,7 +5525,7 @@
         <v>530</v>
       </c>
       <c r="Q57" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R57" s="15"/>
       <c r="S57" s="15">
@@ -5579,7 +5582,7 @@
         <v>530</v>
       </c>
       <c r="Q58" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R58" s="15"/>
       <c r="S58" s="15">
@@ -5636,7 +5639,7 @@
         <v>530</v>
       </c>
       <c r="Q59" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R59" s="15"/>
       <c r="S59" s="15">
@@ -5693,7 +5696,7 @@
         <v>530</v>
       </c>
       <c r="Q60" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R60" s="15"/>
       <c r="S60" s="15">
@@ -5750,7 +5753,7 @@
         <v>530</v>
       </c>
       <c r="Q61" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R61" s="15"/>
       <c r="S61" s="15">
@@ -5807,7 +5810,7 @@
         <v>530</v>
       </c>
       <c r="Q62" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R62" s="15"/>
       <c r="S62" s="15">
@@ -5864,7 +5867,7 @@
         <v>530</v>
       </c>
       <c r="Q63" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R63" s="15"/>
       <c r="S63" s="15">
@@ -5921,7 +5924,7 @@
         <v>530</v>
       </c>
       <c r="Q64" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R64" s="15"/>
       <c r="S64" s="15">
@@ -5978,7 +5981,7 @@
         <v>530</v>
       </c>
       <c r="Q65" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R65" s="15"/>
       <c r="S65" s="15">
@@ -6035,7 +6038,7 @@
         <v>530</v>
       </c>
       <c r="Q66" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R66" s="15"/>
       <c r="S66" s="15">
@@ -6092,7 +6095,7 @@
         <v>530</v>
       </c>
       <c r="Q67" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R67" s="15"/>
       <c r="S67" s="15">
@@ -6149,7 +6152,7 @@
         <v>530</v>
       </c>
       <c r="Q68" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R68" s="15"/>
       <c r="S68" s="15">
@@ -6206,7 +6209,7 @@
         <v>530</v>
       </c>
       <c r="Q69" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R69" s="15"/>
       <c r="S69" s="15">
@@ -6263,7 +6266,7 @@
         <v>530</v>
       </c>
       <c r="Q70" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R70" s="15"/>
       <c r="S70" s="15">
@@ -6320,7 +6323,7 @@
         <v>530</v>
       </c>
       <c r="Q71" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R71" s="15"/>
       <c r="S71" s="15">
@@ -6377,7 +6380,7 @@
         <v>530</v>
       </c>
       <c r="Q72" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R72" s="15"/>
       <c r="S72" s="15">
@@ -6434,7 +6437,7 @@
         <v>530</v>
       </c>
       <c r="Q73" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R73" s="15"/>
       <c r="S73" s="15">
@@ -6491,7 +6494,7 @@
         <v>530</v>
       </c>
       <c r="Q74" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R74" s="15"/>
       <c r="S74" s="15">
@@ -6548,7 +6551,7 @@
         <v>530</v>
       </c>
       <c r="Q75" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R75" s="15"/>
       <c r="S75" s="15">
@@ -6605,7 +6608,7 @@
         <v>530</v>
       </c>
       <c r="Q76" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R76" s="15"/>
       <c r="S76" s="15">
@@ -6662,7 +6665,7 @@
         <v>530</v>
       </c>
       <c r="Q77" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R77" s="15"/>
       <c r="S77" s="15">
@@ -6719,7 +6722,7 @@
         <v>530</v>
       </c>
       <c r="Q78" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R78" s="15"/>
       <c r="S78" s="15">
@@ -6776,7 +6779,7 @@
         <v>530</v>
       </c>
       <c r="Q79" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R79" s="15"/>
       <c r="S79" s="15">
@@ -6833,7 +6836,7 @@
         <v>530</v>
       </c>
       <c r="Q80" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R80" s="15"/>
       <c r="S80" s="15">
@@ -6890,7 +6893,7 @@
         <v>530</v>
       </c>
       <c r="Q81" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R81" s="15"/>
       <c r="S81" s="15">
@@ -6947,7 +6950,7 @@
         <v>530</v>
       </c>
       <c r="Q82" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R82" s="15"/>
       <c r="S82" s="15">
@@ -7004,7 +7007,7 @@
         <v>530</v>
       </c>
       <c r="Q83" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R83" s="15"/>
       <c r="S83" s="15">
@@ -7061,7 +7064,7 @@
         <v>530</v>
       </c>
       <c r="Q84" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R84" s="15"/>
       <c r="S84" s="15">
@@ -7118,7 +7121,7 @@
         <v>530</v>
       </c>
       <c r="Q85" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R85" s="15"/>
       <c r="S85" s="15">
@@ -7175,7 +7178,7 @@
         <v>530</v>
       </c>
       <c r="Q86" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R86" s="15"/>
       <c r="S86" s="15">
@@ -7232,7 +7235,7 @@
         <v>530</v>
       </c>
       <c r="Q87" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R87" s="15"/>
       <c r="S87" s="15">
@@ -7289,7 +7292,7 @@
         <v>530</v>
       </c>
       <c r="Q88" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R88" s="15"/>
       <c r="S88" s="15">
@@ -7346,7 +7349,7 @@
         <v>530</v>
       </c>
       <c r="Q89" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R89" s="15"/>
       <c r="S89" s="15">
@@ -7403,7 +7406,7 @@
         <v>530</v>
       </c>
       <c r="Q90" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R90" s="15"/>
       <c r="S90" s="15">
@@ -7460,7 +7463,7 @@
         <v>530</v>
       </c>
       <c r="Q91" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R91" s="15"/>
       <c r="S91" s="15"/>
@@ -7515,7 +7518,7 @@
         <v>530</v>
       </c>
       <c r="Q92" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R92" s="15"/>
       <c r="S92" s="15"/>
@@ -7570,7 +7573,7 @@
         <v>530</v>
       </c>
       <c r="Q93" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R93" s="15"/>
       <c r="S93" s="15"/>
@@ -7625,7 +7628,7 @@
         <v>530</v>
       </c>
       <c r="Q94" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R94" s="15"/>
       <c r="S94" s="15"/>
@@ -7680,7 +7683,7 @@
         <v>530</v>
       </c>
       <c r="Q95" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R95" s="15"/>
       <c r="S95" s="15"/>
@@ -7735,7 +7738,7 @@
         <v>530</v>
       </c>
       <c r="Q96" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R96" s="15"/>
       <c r="S96" s="15"/>
@@ -7790,7 +7793,7 @@
         <v>530</v>
       </c>
       <c r="Q97" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R97" s="15"/>
       <c r="S97" s="15"/>
@@ -7845,7 +7848,7 @@
         <v>530</v>
       </c>
       <c r="Q98" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R98" s="15"/>
       <c r="S98" s="15"/>
@@ -7900,7 +7903,7 @@
         <v>530</v>
       </c>
       <c r="Q99" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R99" s="15"/>
       <c r="S99" s="15"/>
@@ -7955,7 +7958,7 @@
         <v>530</v>
       </c>
       <c r="Q100" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R100" s="15"/>
       <c r="S100" s="15"/>
@@ -8010,7 +8013,7 @@
         <v>530</v>
       </c>
       <c r="Q101" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="R101" s="15"/>
       <c r="S101" s="15"/>
@@ -8065,7 +8068,7 @@
         <v>530</v>
       </c>
       <c r="Q102" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R102" s="15">
         <v>100</v>
@@ -8124,7 +8127,7 @@
         <v>530</v>
       </c>
       <c r="Q103" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R103" s="15">
         <v>100</v>
@@ -8183,7 +8186,7 @@
         <v>530</v>
       </c>
       <c r="Q104" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R104" s="15">
         <v>100</v>
@@ -8242,7 +8245,7 @@
         <v>530</v>
       </c>
       <c r="Q105" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R105" s="15">
         <v>100</v>
@@ -8301,7 +8304,7 @@
         <v>530</v>
       </c>
       <c r="Q106" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R106" s="15">
         <v>100</v>
@@ -8360,7 +8363,7 @@
         <v>530</v>
       </c>
       <c r="Q107" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R107" s="15">
         <v>100</v>
@@ -8419,7 +8422,7 @@
         <v>530</v>
       </c>
       <c r="Q108" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R108" s="15">
         <v>100</v>
@@ -8478,7 +8481,7 @@
         <v>530</v>
       </c>
       <c r="Q109" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R109" s="15">
         <v>100</v>
@@ -8537,7 +8540,7 @@
         <v>530</v>
       </c>
       <c r="Q110" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R110" s="15">
         <v>100</v>
@@ -8596,7 +8599,7 @@
         <v>530</v>
       </c>
       <c r="Q111" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R111" s="15">
         <v>100</v>
@@ -8655,7 +8658,7 @@
         <v>530</v>
       </c>
       <c r="Q112" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R112" s="15">
         <v>100</v>
@@ -8714,7 +8717,7 @@
         <v>530</v>
       </c>
       <c r="Q113" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R113" s="15">
         <v>100</v>
@@ -8773,7 +8776,7 @@
         <v>530</v>
       </c>
       <c r="Q114" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R114" s="15">
         <v>100</v>
@@ -8832,7 +8835,7 @@
         <v>530</v>
       </c>
       <c r="Q115" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R115" s="15">
         <v>100</v>
@@ -8891,7 +8894,7 @@
         <v>532</v>
       </c>
       <c r="Q116" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R116" s="15">
         <v>190</v>
@@ -8950,7 +8953,7 @@
         <v>532</v>
       </c>
       <c r="Q117" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R117" s="15">
         <v>256</v>
@@ -9009,7 +9012,7 @@
         <v>532</v>
       </c>
       <c r="Q118" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R118" s="15">
         <v>301</v>
@@ -9068,7 +9071,7 @@
         <v>532</v>
       </c>
       <c r="Q119" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R119" s="15">
         <v>278</v>
@@ -9127,7 +9130,7 @@
         <v>532</v>
       </c>
       <c r="Q120" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R120" s="15">
         <v>382</v>
@@ -9186,7 +9189,7 @@
         <v>532</v>
       </c>
       <c r="Q121" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R121" s="15">
         <v>197</v>
@@ -9245,7 +9248,7 @@
         <v>532</v>
       </c>
       <c r="Q122" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R122" s="15">
         <v>333</v>
@@ -9304,7 +9307,7 @@
         <v>532</v>
       </c>
       <c r="Q123" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R123" s="15">
         <v>239</v>
@@ -9361,7 +9364,7 @@
         <v>529</v>
       </c>
       <c r="Q124" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="R124" s="15">
         <v>400</v>
@@ -9418,7 +9421,7 @@
         <v>532</v>
       </c>
       <c r="Q125" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R125" s="15"/>
       <c r="S125" s="15"/>
@@ -9471,7 +9474,7 @@
         <v>532</v>
       </c>
       <c r="Q126" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R126" s="15"/>
       <c r="S126" s="15"/>
@@ -9630,7 +9633,7 @@
         <v>532</v>
       </c>
       <c r="Q129" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R129" s="15"/>
       <c r="S129" s="15"/>
@@ -9736,7 +9739,7 @@
         <v>532</v>
       </c>
       <c r="Q131" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R131" s="15"/>
       <c r="S131" s="15"/>
@@ -9789,7 +9792,7 @@
         <v>532</v>
       </c>
       <c r="Q132" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R132" s="15"/>
       <c r="S132" s="15"/>
@@ -9895,7 +9898,7 @@
         <v>532</v>
       </c>
       <c r="Q134" s="10" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="R134" s="15"/>
       <c r="S134" s="15"/>
@@ -9948,7 +9951,7 @@
         <v>532</v>
       </c>
       <c r="Q135" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R135" s="15"/>
       <c r="S135" s="15"/>
@@ -10001,7 +10004,7 @@
         <v>532</v>
       </c>
       <c r="Q136" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R136" s="15"/>
       <c r="S136" s="15"/>
@@ -10054,7 +10057,7 @@
         <v>532</v>
       </c>
       <c r="Q137" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R137" s="15"/>
       <c r="S137" s="15"/>
@@ -10107,7 +10110,7 @@
         <v>532</v>
       </c>
       <c r="Q138" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R138" s="15"/>
       <c r="S138" s="15"/>
@@ -10160,7 +10163,7 @@
         <v>532</v>
       </c>
       <c r="Q139" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R139" s="15"/>
       <c r="S139" s="15"/>
@@ -10319,7 +10322,7 @@
         <v>532</v>
       </c>
       <c r="Q142" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R142" s="15"/>
       <c r="S142" s="15"/>
@@ -10478,7 +10481,7 @@
         <v>532</v>
       </c>
       <c r="Q145" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R145" s="15"/>
       <c r="S145" s="15">
@@ -10533,7 +10536,7 @@
         <v>532</v>
       </c>
       <c r="Q146" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R146" s="15"/>
       <c r="S146" s="15">
@@ -10588,7 +10591,7 @@
         <v>532</v>
       </c>
       <c r="Q147" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R147" s="15"/>
       <c r="S147" s="15">
@@ -10643,7 +10646,7 @@
         <v>532</v>
       </c>
       <c r="Q148" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R148" s="15"/>
       <c r="S148" s="15">
@@ -10698,7 +10701,7 @@
         <v>532</v>
       </c>
       <c r="Q149" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R149" s="15"/>
       <c r="S149" s="15">
@@ -10753,7 +10756,7 @@
         <v>532</v>
       </c>
       <c r="Q150" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R150" s="15"/>
       <c r="S150" s="15">
@@ -10808,7 +10811,7 @@
         <v>532</v>
       </c>
       <c r="Q151" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R151" s="15"/>
       <c r="S151" s="15">
@@ -10863,7 +10866,7 @@
         <v>532</v>
       </c>
       <c r="Q152" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R152" s="15"/>
       <c r="S152" s="15">
@@ -10918,7 +10921,7 @@
         <v>532</v>
       </c>
       <c r="Q153" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R153" s="15"/>
       <c r="S153" s="15">
@@ -10973,7 +10976,7 @@
         <v>532</v>
       </c>
       <c r="Q154" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R154" s="15"/>
       <c r="S154" s="15">
@@ -11028,7 +11031,7 @@
         <v>532</v>
       </c>
       <c r="Q155" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R155" s="15"/>
       <c r="S155" s="15">
@@ -11083,7 +11086,7 @@
         <v>532</v>
       </c>
       <c r="Q156" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R156" s="15"/>
       <c r="S156" s="15">
@@ -11138,7 +11141,7 @@
         <v>532</v>
       </c>
       <c r="Q157" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R157" s="15"/>
       <c r="S157" s="15">
@@ -11193,7 +11196,7 @@
         <v>532</v>
       </c>
       <c r="Q158" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R158" s="15"/>
       <c r="S158" s="15">
@@ -11248,7 +11251,7 @@
         <v>532</v>
       </c>
       <c r="Q159" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R159" s="15"/>
       <c r="S159" s="15">
@@ -11303,7 +11306,7 @@
         <v>532</v>
       </c>
       <c r="Q160" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R160" s="15"/>
       <c r="S160" s="15">
@@ -11358,7 +11361,7 @@
         <v>532</v>
       </c>
       <c r="Q161" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R161" s="15"/>
       <c r="S161" s="15">
@@ -11413,7 +11416,7 @@
         <v>532</v>
       </c>
       <c r="Q162" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R162" s="15"/>
       <c r="S162" s="15">
@@ -11468,7 +11471,7 @@
         <v>532</v>
       </c>
       <c r="Q163" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R163" s="15"/>
       <c r="S163" s="15">
@@ -11523,7 +11526,7 @@
         <v>532</v>
       </c>
       <c r="Q164" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R164" s="15"/>
       <c r="S164" s="15">
@@ -11578,7 +11581,7 @@
         <v>532</v>
       </c>
       <c r="Q165" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R165" s="15"/>
       <c r="S165" s="15">
@@ -11633,7 +11636,7 @@
         <v>532</v>
       </c>
       <c r="Q166" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R166" s="15"/>
       <c r="S166" s="15">
@@ -11688,7 +11691,7 @@
         <v>532</v>
       </c>
       <c r="Q167" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R167" s="15"/>
       <c r="S167" s="15">
@@ -11743,7 +11746,7 @@
         <v>532</v>
       </c>
       <c r="Q168" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R168" s="15"/>
       <c r="S168" s="15">
@@ -11798,7 +11801,7 @@
         <v>532</v>
       </c>
       <c r="Q169" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R169" s="15"/>
       <c r="S169" s="15">
@@ -11853,7 +11856,7 @@
         <v>532</v>
       </c>
       <c r="Q170" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R170" s="15"/>
       <c r="S170" s="15">
@@ -11908,7 +11911,7 @@
         <v>532</v>
       </c>
       <c r="Q171" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R171" s="15"/>
       <c r="S171" s="15">
@@ -11963,7 +11966,7 @@
         <v>532</v>
       </c>
       <c r="Q172" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R172" s="15"/>
       <c r="S172" s="15">
@@ -12018,7 +12021,7 @@
         <v>532</v>
       </c>
       <c r="Q173" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R173" s="15"/>
       <c r="S173" s="15">
@@ -12073,7 +12076,7 @@
         <v>532</v>
       </c>
       <c r="Q174" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R174" s="15"/>
       <c r="S174" s="15">
@@ -12128,7 +12131,7 @@
         <v>532</v>
       </c>
       <c r="Q175" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R175" s="15"/>
       <c r="S175" s="15">
@@ -12183,7 +12186,7 @@
         <v>532</v>
       </c>
       <c r="Q176" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R176" s="15"/>
       <c r="S176" s="15">
@@ -12238,7 +12241,7 @@
         <v>532</v>
       </c>
       <c r="Q177" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R177" s="15"/>
       <c r="S177" s="15">
@@ -12293,7 +12296,7 @@
         <v>532</v>
       </c>
       <c r="Q178" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R178" s="15"/>
       <c r="S178" s="15">
@@ -12348,7 +12351,7 @@
         <v>532</v>
       </c>
       <c r="Q179" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R179" s="15"/>
       <c r="S179" s="15">
@@ -12403,7 +12406,7 @@
         <v>532</v>
       </c>
       <c r="Q180" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R180" s="15"/>
       <c r="S180" s="15">
@@ -12458,7 +12461,7 @@
         <v>532</v>
       </c>
       <c r="Q181" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R181" s="15"/>
       <c r="S181" s="15">
@@ -12513,7 +12516,7 @@
         <v>532</v>
       </c>
       <c r="Q182" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R182" s="15"/>
       <c r="S182" s="15">
@@ -12570,7 +12573,7 @@
         <v>532</v>
       </c>
       <c r="Q183" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R183" s="15"/>
       <c r="S183" s="15"/>
@@ -12625,7 +12628,7 @@
         <v>532</v>
       </c>
       <c r="Q184" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R184" s="15"/>
       <c r="S184" s="15"/>
@@ -12680,7 +12683,7 @@
         <v>532</v>
       </c>
       <c r="Q185" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R185" s="15"/>
       <c r="S185" s="15"/>
@@ -12735,7 +12738,7 @@
         <v>532</v>
       </c>
       <c r="Q186" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R186" s="15"/>
       <c r="S186" s="15"/>
@@ -12790,7 +12793,7 @@
         <v>532</v>
       </c>
       <c r="Q187" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R187" s="15"/>
       <c r="S187" s="15"/>
@@ -12845,7 +12848,7 @@
         <v>532</v>
       </c>
       <c r="Q188" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R188" s="15"/>
       <c r="S188" s="15"/>
@@ -12900,7 +12903,7 @@
         <v>532</v>
       </c>
       <c r="Q189" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R189" s="15"/>
       <c r="S189" s="15"/>
@@ -13010,7 +13013,7 @@
         <v>532</v>
       </c>
       <c r="Q191" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="R191" s="15"/>
       <c r="S191" s="15"/>
@@ -13065,7 +13068,7 @@
         <v>532</v>
       </c>
       <c r="Q192" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R192" s="15"/>
       <c r="S192" s="15"/>
@@ -13120,7 +13123,7 @@
         <v>532</v>
       </c>
       <c r="Q193" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R193" s="15"/>
       <c r="S193" s="15"/>
@@ -13175,7 +13178,7 @@
         <v>532</v>
       </c>
       <c r="Q194" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R194" s="15"/>
       <c r="S194" s="15"/>
@@ -13395,7 +13398,7 @@
         <v>532</v>
       </c>
       <c r="Q198" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R198" s="15"/>
       <c r="S198" s="15"/>
@@ -13450,7 +13453,7 @@
         <v>532</v>
       </c>
       <c r="Q199" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R199" s="15"/>
       <c r="S199" s="15"/>
@@ -13615,7 +13618,7 @@
         <v>532</v>
       </c>
       <c r="Q202" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="R202" s="15"/>
       <c r="S202" s="15"/>
@@ -13670,7 +13673,7 @@
         <v>532</v>
       </c>
       <c r="Q203" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R203" s="15"/>
       <c r="S203" s="15"/>
@@ -13725,7 +13728,7 @@
         <v>532</v>
       </c>
       <c r="Q204" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R204" s="15"/>
       <c r="S204" s="15"/>
@@ -13835,7 +13838,7 @@
         <v>532</v>
       </c>
       <c r="Q206" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R206" s="15"/>
       <c r="S206" s="15"/>
@@ -13890,7 +13893,7 @@
         <v>532</v>
       </c>
       <c r="Q207" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R207" s="15"/>
       <c r="S207" s="15"/>
@@ -13945,7 +13948,7 @@
         <v>532</v>
       </c>
       <c r="Q208" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R208" s="15"/>
       <c r="S208" s="15"/>
@@ -14163,7 +14166,7 @@
         <v>530</v>
       </c>
       <c r="Q212" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R212" s="15"/>
       <c r="S212" s="15">
@@ -14218,7 +14221,7 @@
         <v>530</v>
       </c>
       <c r="Q213" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R213" s="15"/>
       <c r="S213" s="15">
@@ -14273,7 +14276,7 @@
         <v>530</v>
       </c>
       <c r="Q214" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R214" s="15"/>
       <c r="S214" s="15">
@@ -14328,7 +14331,7 @@
         <v>530</v>
       </c>
       <c r="Q215" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R215" s="15"/>
       <c r="S215" s="15">
@@ -14383,7 +14386,7 @@
         <v>530</v>
       </c>
       <c r="Q216" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R216" s="15"/>
       <c r="S216" s="15">
@@ -14438,7 +14441,7 @@
         <v>530</v>
       </c>
       <c r="Q217" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R217" s="15"/>
       <c r="S217" s="15">
@@ -14493,7 +14496,7 @@
         <v>530</v>
       </c>
       <c r="Q218" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R218" s="15"/>
       <c r="S218" s="15">
@@ -14548,7 +14551,7 @@
         <v>530</v>
       </c>
       <c r="Q219" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R219" s="15"/>
       <c r="S219" s="15">
@@ -14603,7 +14606,7 @@
         <v>530</v>
       </c>
       <c r="Q220" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R220" s="15"/>
       <c r="S220" s="15">
@@ -14658,7 +14661,7 @@
         <v>530</v>
       </c>
       <c r="Q221" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R221" s="15"/>
       <c r="S221" s="15">
@@ -14713,7 +14716,7 @@
         <v>530</v>
       </c>
       <c r="Q222" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R222" s="15"/>
       <c r="S222" s="15">
@@ -14770,7 +14773,7 @@
         <v>530</v>
       </c>
       <c r="Q223" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R223" s="15">
         <v>100</v>
@@ -14829,7 +14832,7 @@
         <v>530</v>
       </c>
       <c r="Q224" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R224" s="15">
         <v>409</v>
@@ -14888,7 +14891,7 @@
         <v>530</v>
       </c>
       <c r="Q225" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R225" s="15">
         <v>370</v>
@@ -14947,7 +14950,7 @@
         <v>530</v>
       </c>
       <c r="Q226" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R226" s="15">
         <v>757</v>
@@ -15006,7 +15009,7 @@
         <v>530</v>
       </c>
       <c r="Q227" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R227" s="15">
         <v>451</v>
@@ -15065,7 +15068,7 @@
         <v>530</v>
       </c>
       <c r="Q228" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R228" s="15">
         <v>431</v>
@@ -15124,7 +15127,7 @@
         <v>530</v>
       </c>
       <c r="Q229" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R229" s="15">
         <v>296</v>
@@ -15183,7 +15186,7 @@
         <v>530</v>
       </c>
       <c r="Q230" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R230" s="15">
         <v>936</v>
@@ -15242,7 +15245,7 @@
         <v>530</v>
       </c>
       <c r="Q231" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R231" s="15">
         <v>190</v>
@@ -15301,7 +15304,7 @@
         <v>530</v>
       </c>
       <c r="Q232" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R232" s="15">
         <v>357</v>
@@ -15360,7 +15363,7 @@
         <v>530</v>
       </c>
       <c r="Q233" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R233" s="15">
         <v>389</v>
@@ -15419,7 +15422,7 @@
         <v>530</v>
       </c>
       <c r="Q234" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R234" s="15">
         <v>150</v>
@@ -15478,7 +15481,7 @@
         <v>530</v>
       </c>
       <c r="Q235" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R235" s="15">
         <v>300</v>
@@ -15531,7 +15534,7 @@
         <v>530</v>
       </c>
       <c r="Q236" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R236" s="15">
         <v>300</v>
@@ -15590,7 +15593,7 @@
         <v>530</v>
       </c>
       <c r="Q237" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R237" s="15">
         <v>150</v>
@@ -15649,7 +15652,7 @@
         <v>530</v>
       </c>
       <c r="Q238" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R238" s="15">
         <v>150</v>
@@ -15708,7 +15711,7 @@
         <v>530</v>
       </c>
       <c r="Q239" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R239" s="15">
         <v>300</v>
@@ -15767,7 +15770,7 @@
         <v>530</v>
       </c>
       <c r="Q240" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R240" s="15">
         <v>300</v>
@@ -15826,7 +15829,7 @@
         <v>530</v>
       </c>
       <c r="Q241" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R241" s="15">
         <v>300</v>
@@ -15879,7 +15882,7 @@
         <v>530</v>
       </c>
       <c r="Q242" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R242" s="15">
         <v>100</v>
@@ -15938,7 +15941,7 @@
         <v>530</v>
       </c>
       <c r="Q243" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R243" s="15">
         <v>800</v>
@@ -15997,7 +16000,7 @@
         <v>530</v>
       </c>
       <c r="Q244" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R244" s="15">
         <v>100</v>
@@ -16056,7 +16059,7 @@
         <v>530</v>
       </c>
       <c r="Q245" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R245" s="15">
         <v>200</v>
@@ -16115,7 +16118,7 @@
         <v>530</v>
       </c>
       <c r="Q246" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R246" s="15"/>
       <c r="S246" s="15"/>
@@ -16225,7 +16228,7 @@
         <v>530</v>
       </c>
       <c r="Q248" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R248" s="15">
         <v>100</v>
@@ -16284,7 +16287,7 @@
         <v>530</v>
       </c>
       <c r="Q249" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R249" s="15">
         <v>100</v>
@@ -16398,7 +16401,7 @@
         <v>530</v>
       </c>
       <c r="Q251" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R251" s="15"/>
       <c r="S251" s="15"/>
@@ -16453,7 +16456,7 @@
         <v>530</v>
       </c>
       <c r="Q252" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R252" s="15">
         <v>234</v>
@@ -16512,7 +16515,7 @@
         <v>530</v>
       </c>
       <c r="Q253" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R253" s="15"/>
       <c r="S253" s="15">
@@ -16569,7 +16572,7 @@
         <v>530</v>
       </c>
       <c r="Q254" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R254" s="15"/>
       <c r="S254" s="15">
@@ -16626,7 +16629,7 @@
         <v>530</v>
       </c>
       <c r="Q255" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R255" s="15"/>
       <c r="S255" s="15">
@@ -16683,7 +16686,7 @@
         <v>530</v>
       </c>
       <c r="Q256" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R256" s="15"/>
       <c r="S256" s="15">
@@ -16740,7 +16743,7 @@
         <v>530</v>
       </c>
       <c r="Q257" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R257" s="15"/>
       <c r="S257" s="15">
@@ -16797,7 +16800,7 @@
         <v>530</v>
       </c>
       <c r="Q258" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R258" s="15"/>
       <c r="S258" s="15">
@@ -16854,7 +16857,7 @@
         <v>530</v>
       </c>
       <c r="Q259" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R259" s="15"/>
       <c r="S259" s="15">
@@ -16911,7 +16914,7 @@
         <v>530</v>
       </c>
       <c r="Q260" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R260" s="15"/>
       <c r="S260" s="15">
@@ -16968,7 +16971,7 @@
         <v>530</v>
       </c>
       <c r="Q261" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R261" s="15"/>
       <c r="S261" s="15">
@@ -17025,7 +17028,7 @@
         <v>530</v>
       </c>
       <c r="Q262" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R262" s="15"/>
       <c r="S262" s="15">
@@ -17082,7 +17085,7 @@
         <v>530</v>
       </c>
       <c r="Q263" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R263" s="15"/>
       <c r="S263" s="15">
@@ -17139,7 +17142,7 @@
         <v>530</v>
       </c>
       <c r="Q264" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R264" s="15"/>
       <c r="S264" s="15">
@@ -17196,7 +17199,7 @@
         <v>530</v>
       </c>
       <c r="Q265" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R265" s="15"/>
       <c r="S265" s="15">
@@ -17253,7 +17256,7 @@
         <v>530</v>
       </c>
       <c r="Q266" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R266" s="15"/>
       <c r="S266" s="15">
@@ -17310,7 +17313,7 @@
         <v>530</v>
       </c>
       <c r="Q267" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R267" s="15"/>
       <c r="S267" s="15">
@@ -17367,7 +17370,7 @@
         <v>530</v>
       </c>
       <c r="Q268" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R268" s="15"/>
       <c r="S268" s="15">
@@ -17424,7 +17427,7 @@
         <v>532</v>
       </c>
       <c r="Q269" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="R269" s="15">
         <v>500</v>
@@ -17483,7 +17486,7 @@
         <v>532</v>
       </c>
       <c r="Q270" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R270" s="15">
         <v>500</v>
@@ -17542,7 +17545,7 @@
         <v>532</v>
       </c>
       <c r="Q271" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R271" s="15">
         <v>500</v>
@@ -17778,7 +17781,7 @@
         <v>532</v>
       </c>
       <c r="Q275" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R275" s="15">
         <v>500</v>
@@ -17837,7 +17840,7 @@
         <v>532</v>
       </c>
       <c r="Q276" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R276" s="15"/>
       <c r="S276" s="15">
@@ -17894,7 +17897,7 @@
         <v>532</v>
       </c>
       <c r="Q277" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="R277" s="15">
         <v>500</v>
@@ -17953,7 +17956,7 @@
         <v>532</v>
       </c>
       <c r="Q278" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="R278" s="15">
         <v>500</v>
@@ -18012,7 +18015,7 @@
         <v>532</v>
       </c>
       <c r="Q279" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R279" s="15">
         <v>500</v>
@@ -18071,7 +18074,7 @@
         <v>532</v>
       </c>
       <c r="Q280" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R280" s="15"/>
       <c r="S280" s="15">
@@ -18128,7 +18131,7 @@
         <v>532</v>
       </c>
       <c r="Q281" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R281" s="15">
         <v>500</v>
@@ -18187,7 +18190,7 @@
         <v>532</v>
       </c>
       <c r="Q282" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R282" s="15">
         <v>500</v>
@@ -18246,7 +18249,7 @@
         <v>532</v>
       </c>
       <c r="Q283" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R283" s="15">
         <v>500</v>
@@ -18305,7 +18308,7 @@
         <v>532</v>
       </c>
       <c r="Q284" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R284" s="15">
         <v>500</v>
@@ -18364,7 +18367,7 @@
         <v>532</v>
       </c>
       <c r="Q285" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R285" s="15">
         <v>500</v>
@@ -18423,7 +18426,7 @@
         <v>532</v>
       </c>
       <c r="Q286" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R286" s="15"/>
       <c r="S286" s="15">
@@ -18480,7 +18483,7 @@
         <v>532</v>
       </c>
       <c r="Q287" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R287" s="15"/>
       <c r="S287" s="15">
@@ -18537,7 +18540,7 @@
         <v>532</v>
       </c>
       <c r="Q288" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R288" s="15"/>
       <c r="S288" s="15">
@@ -18594,7 +18597,7 @@
         <v>532</v>
       </c>
       <c r="Q289" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R289" s="15"/>
       <c r="S289" s="15">
@@ -18651,7 +18654,7 @@
         <v>532</v>
       </c>
       <c r="Q290" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R290" s="15"/>
       <c r="S290" s="15">
@@ -18708,7 +18711,7 @@
         <v>532</v>
       </c>
       <c r="Q291" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R291" s="15">
         <v>500</v>
@@ -18767,7 +18770,7 @@
         <v>530</v>
       </c>
       <c r="Q292" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R292" s="15"/>
       <c r="S292" s="15">
@@ -18824,7 +18827,7 @@
         <v>530</v>
       </c>
       <c r="Q293" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R293" s="15"/>
       <c r="S293" s="15">
@@ -18881,7 +18884,7 @@
         <v>530</v>
       </c>
       <c r="Q294" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R294" s="15"/>
       <c r="S294" s="15">
@@ -18938,7 +18941,7 @@
         <v>530</v>
       </c>
       <c r="Q295" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R295" s="15"/>
       <c r="S295" s="15">
@@ -18995,7 +18998,7 @@
         <v>530</v>
       </c>
       <c r="Q296" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R296" s="15"/>
       <c r="S296" s="15">
@@ -19052,7 +19055,7 @@
         <v>530</v>
       </c>
       <c r="Q297" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R297" s="15"/>
       <c r="S297" s="15">
@@ -19109,7 +19112,7 @@
         <v>530</v>
       </c>
       <c r="Q298" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R298" s="15"/>
       <c r="S298" s="15">
@@ -19166,7 +19169,7 @@
         <v>530</v>
       </c>
       <c r="Q299" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R299" s="15"/>
       <c r="S299" s="15">
@@ -19223,7 +19226,7 @@
         <v>530</v>
       </c>
       <c r="Q300" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R300" s="15"/>
       <c r="S300" s="15">
@@ -19280,7 +19283,7 @@
         <v>530</v>
       </c>
       <c r="Q301" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R301" s="15"/>
       <c r="S301" s="15">
@@ -19337,7 +19340,7 @@
         <v>530</v>
       </c>
       <c r="Q302" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R302" s="15"/>
       <c r="S302" s="15">
@@ -19394,7 +19397,7 @@
         <v>530</v>
       </c>
       <c r="Q303" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R303" s="15"/>
       <c r="S303" s="15">
@@ -19451,7 +19454,7 @@
         <v>530</v>
       </c>
       <c r="Q304" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R304" s="15"/>
       <c r="S304" s="15">
@@ -19508,7 +19511,7 @@
         <v>530</v>
       </c>
       <c r="Q305" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R305" s="15"/>
       <c r="S305" s="15">
@@ -19565,7 +19568,7 @@
         <v>530</v>
       </c>
       <c r="Q306" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R306" s="15"/>
       <c r="S306" s="15">
@@ -19622,7 +19625,7 @@
         <v>530</v>
       </c>
       <c r="Q307" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R307" s="15"/>
       <c r="S307" s="15">
@@ -19679,7 +19682,7 @@
         <v>530</v>
       </c>
       <c r="Q308" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R308" s="15"/>
       <c r="S308" s="15">
@@ -19736,7 +19739,7 @@
         <v>530</v>
       </c>
       <c r="Q309" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R309" s="15"/>
       <c r="S309" s="15">
@@ -19793,7 +19796,7 @@
         <v>530</v>
       </c>
       <c r="Q310" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R310" s="15"/>
       <c r="S310" s="15">
@@ -19850,7 +19853,7 @@
         <v>530</v>
       </c>
       <c r="Q311" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R311" s="15"/>
       <c r="S311" s="15">
@@ -19907,7 +19910,7 @@
         <v>530</v>
       </c>
       <c r="Q312" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R312" s="15">
         <v>244</v>
@@ -19966,7 +19969,7 @@
         <v>530</v>
       </c>
       <c r="Q313" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R313" s="15">
         <v>468</v>
@@ -20025,7 +20028,7 @@
         <v>530</v>
       </c>
       <c r="Q314" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R314" s="15">
         <v>412</v>
@@ -20084,7 +20087,7 @@
         <v>530</v>
       </c>
       <c r="Q315" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R315" s="15">
         <v>426</v>
@@ -20143,7 +20146,7 @@
         <v>530</v>
       </c>
       <c r="Q316" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R316" s="15">
         <v>621</v>
@@ -20202,7 +20205,7 @@
         <v>530</v>
       </c>
       <c r="Q317" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R317" s="15">
         <v>325</v>
@@ -20261,7 +20264,7 @@
         <v>530</v>
       </c>
       <c r="Q318" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R318" s="15">
         <v>172</v>
@@ -20320,7 +20323,7 @@
         <v>530</v>
       </c>
       <c r="Q319" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R319" s="15">
         <v>84</v>
@@ -20379,7 +20382,7 @@
         <v>530</v>
       </c>
       <c r="Q320" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R320" s="15">
         <v>535</v>
@@ -20438,7 +20441,7 @@
         <v>530</v>
       </c>
       <c r="Q321" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R321" s="15">
         <v>328</v>
@@ -20497,7 +20500,7 @@
         <v>530</v>
       </c>
       <c r="Q322" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R322" s="15">
         <v>463</v>
@@ -20556,7 +20559,7 @@
         <v>530</v>
       </c>
       <c r="Q323" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R323" s="15">
         <v>559</v>
@@ -20615,7 +20618,7 @@
         <v>530</v>
       </c>
       <c r="Q324" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R324" s="15">
         <v>318</v>
@@ -20674,7 +20677,7 @@
         <v>530</v>
       </c>
       <c r="Q325" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R325" s="15">
         <v>59</v>
@@ -20733,7 +20736,7 @@
         <v>530</v>
       </c>
       <c r="Q326" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R326" s="15">
         <v>209</v>
@@ -20792,7 +20795,7 @@
         <v>530</v>
       </c>
       <c r="Q327" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R327" s="15">
         <v>308</v>
@@ -20851,7 +20854,7 @@
         <v>530</v>
       </c>
       <c r="Q328" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R328" s="15">
         <v>345</v>
@@ -20910,7 +20913,7 @@
         <v>530</v>
       </c>
       <c r="Q329" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R329" s="15">
         <v>453</v>
@@ -20969,7 +20972,7 @@
         <v>530</v>
       </c>
       <c r="Q330" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R330" s="15">
         <v>586</v>
@@ -21028,7 +21031,7 @@
         <v>530</v>
       </c>
       <c r="Q331" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R331" s="15">
         <v>591</v>
@@ -21087,7 +21090,7 @@
         <v>530</v>
       </c>
       <c r="Q332" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R332" s="15">
         <v>776</v>
@@ -21146,7 +21149,7 @@
         <v>530</v>
       </c>
       <c r="Q333" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="R333" s="15">
         <v>520</v>
@@ -21205,7 +21208,7 @@
         <v>530</v>
       </c>
       <c r="Q334" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="R334" s="15">
         <v>428</v>
@@ -21264,7 +21267,7 @@
         <v>530</v>
       </c>
       <c r="Q335" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="R335" s="15">
         <v>421</v>
@@ -21323,7 +21326,7 @@
         <v>530</v>
       </c>
       <c r="Q336" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="R336" s="15">
         <v>499</v>
@@ -21382,7 +21385,7 @@
         <v>530</v>
       </c>
       <c r="Q337" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="R337" s="15">
         <v>478</v>
@@ -21441,7 +21444,7 @@
         <v>530</v>
       </c>
       <c r="Q338" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R338" s="15">
         <v>419</v>
@@ -21500,7 +21503,7 @@
         <v>530</v>
       </c>
       <c r="Q339" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R339" s="15">
         <v>360</v>
@@ -21559,7 +21562,7 @@
         <v>530</v>
       </c>
       <c r="Q340" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R340" s="15">
         <v>372</v>
@@ -21618,7 +21621,7 @@
         <v>530</v>
       </c>
       <c r="Q341" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R341" s="15">
         <v>283</v>
@@ -21732,7 +21735,7 @@
         <v>530</v>
       </c>
       <c r="Q343" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R343" s="15"/>
       <c r="S343" s="15"/>
@@ -21897,7 +21900,7 @@
         <v>530</v>
       </c>
       <c r="Q346" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R346" s="15"/>
       <c r="S346" s="15"/>
@@ -21952,7 +21955,7 @@
         <v>530</v>
       </c>
       <c r="Q347" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R347" s="15"/>
       <c r="S347" s="15"/>
@@ -22007,7 +22010,7 @@
         <v>530</v>
       </c>
       <c r="Q348" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R348" s="15"/>
       <c r="S348" s="15"/>
@@ -22062,7 +22065,7 @@
         <v>530</v>
       </c>
       <c r="Q349" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R349" s="15"/>
       <c r="S349" s="15"/>
@@ -22282,7 +22285,7 @@
         <v>530</v>
       </c>
       <c r="Q353" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R353" s="15"/>
       <c r="S353" s="15"/>
@@ -22337,7 +22340,7 @@
         <v>530</v>
       </c>
       <c r="Q354" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R354" s="15"/>
       <c r="S354" s="15"/>
@@ -22447,7 +22450,7 @@
         <v>530</v>
       </c>
       <c r="Q356" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R356" s="15"/>
       <c r="S356" s="15"/>
@@ -22557,7 +22560,7 @@
         <v>530</v>
       </c>
       <c r="Q358" s="10" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="R358" s="15"/>
       <c r="S358" s="15"/>
@@ -22612,7 +22615,7 @@
         <v>530</v>
       </c>
       <c r="Q359" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R359" s="15"/>
       <c r="S359" s="15"/>
@@ -22722,7 +22725,7 @@
         <v>530</v>
       </c>
       <c r="Q361" s="10" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="R361" s="15"/>
       <c r="S361" s="15"/>
@@ -22887,7 +22890,7 @@
         <v>530</v>
       </c>
       <c r="Q364" s="10" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="R364" s="15"/>
       <c r="S364" s="15"/>
@@ -22997,7 +23000,7 @@
         <v>530</v>
       </c>
       <c r="Q366" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R366" s="15"/>
       <c r="S366" s="15"/>
@@ -23162,7 +23165,7 @@
         <v>530</v>
       </c>
       <c r="Q369" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R369" s="15"/>
       <c r="S369" s="15"/>
@@ -23217,7 +23220,7 @@
         <v>530</v>
       </c>
       <c r="Q370" s="10" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="R370" s="15"/>
       <c r="S370" s="15"/>
@@ -23272,7 +23275,7 @@
         <v>530</v>
       </c>
       <c r="Q371" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R371" s="15"/>
       <c r="S371" s="15"/>
@@ -23492,7 +23495,7 @@
         <v>530</v>
       </c>
       <c r="Q375" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R375" s="15"/>
       <c r="S375" s="15"/>
@@ -23547,7 +23550,7 @@
         <v>529</v>
       </c>
       <c r="Q376" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="R376" s="15"/>
       <c r="S376" s="15"/>
@@ -23602,7 +23605,7 @@
         <v>529</v>
       </c>
       <c r="Q377" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R377" s="15"/>
       <c r="S377" s="15"/>
@@ -23657,7 +23660,7 @@
         <v>529</v>
       </c>
       <c r="Q378" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R378" s="15"/>
       <c r="S378" s="15"/>
@@ -24262,7 +24265,7 @@
         <v>529</v>
       </c>
       <c r="Q389" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R389" s="15"/>
       <c r="S389" s="15"/>
@@ -24317,7 +24320,7 @@
         <v>529</v>
       </c>
       <c r="Q390" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R390" s="15"/>
       <c r="S390" s="15"/>
@@ -24372,7 +24375,7 @@
         <v>529</v>
       </c>
       <c r="Q391" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R391" s="15"/>
       <c r="S391" s="15"/>
@@ -24427,7 +24430,7 @@
         <v>529</v>
       </c>
       <c r="Q392" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R392" s="15"/>
       <c r="S392" s="15"/>
@@ -24482,7 +24485,7 @@
         <v>529</v>
       </c>
       <c r="Q393" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R393" s="15"/>
       <c r="S393" s="15"/>
@@ -24647,7 +24650,7 @@
         <v>529</v>
       </c>
       <c r="Q396" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R396" s="15"/>
       <c r="S396" s="15"/>
@@ -24867,7 +24870,7 @@
         <v>530</v>
       </c>
       <c r="Q400" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R400" s="15"/>
       <c r="S400" s="15"/>
@@ -24922,7 +24925,7 @@
         <v>530</v>
       </c>
       <c r="Q401" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R401" s="15">
         <v>600</v>
@@ -24981,7 +24984,7 @@
         <v>529</v>
       </c>
       <c r="Q402" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R402" s="15">
         <v>300</v>
@@ -25040,7 +25043,7 @@
         <v>529</v>
       </c>
       <c r="Q403" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R403" s="15">
         <v>150</v>
@@ -25099,7 +25102,7 @@
         <v>529</v>
       </c>
       <c r="Q404" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R404" s="15">
         <v>150</v>
@@ -25158,7 +25161,7 @@
         <v>529</v>
       </c>
       <c r="Q405" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R405" s="15">
         <v>150</v>
@@ -25217,7 +25220,7 @@
         <v>529</v>
       </c>
       <c r="Q406" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R406" s="15">
         <v>200</v>
@@ -25276,7 +25279,7 @@
         <v>529</v>
       </c>
       <c r="Q407" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R407" s="15">
         <v>800</v>
@@ -25335,7 +25338,7 @@
         <v>529</v>
       </c>
       <c r="Q408" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R408" s="15">
         <v>150</v>
@@ -25394,7 +25397,7 @@
         <v>529</v>
       </c>
       <c r="Q409" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R409" s="15">
         <v>400</v>
@@ -25453,7 +25456,7 @@
         <v>529</v>
       </c>
       <c r="Q410" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R410" s="15">
         <v>300</v>
@@ -25512,7 +25515,7 @@
         <v>529</v>
       </c>
       <c r="Q411" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R411" s="15">
         <v>150</v>
@@ -25571,7 +25574,7 @@
         <v>529</v>
       </c>
       <c r="Q412" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R412" s="15">
         <v>150</v>
@@ -25630,7 +25633,7 @@
         <v>529</v>
       </c>
       <c r="Q413" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="R413" s="15">
         <v>800</v>
@@ -25689,7 +25692,7 @@
         <v>529</v>
       </c>
       <c r="Q414" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R414" s="15">
         <v>150</v>
@@ -25748,7 +25751,7 @@
         <v>529</v>
       </c>
       <c r="Q415" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R415" s="15">
         <v>300</v>
@@ -25807,7 +25810,7 @@
         <v>529</v>
       </c>
       <c r="Q416" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R416" s="15">
         <v>150</v>
@@ -25866,7 +25869,7 @@
         <v>529</v>
       </c>
       <c r="Q417" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R417" s="15">
         <v>800</v>
@@ -25925,7 +25928,7 @@
         <v>529</v>
       </c>
       <c r="Q418" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R418" s="15">
         <v>800</v>
@@ -25984,7 +25987,7 @@
         <v>529</v>
       </c>
       <c r="Q419" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R419" s="15">
         <v>800</v>
@@ -26043,7 +26046,7 @@
         <v>529</v>
       </c>
       <c r="Q420" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R420" s="15">
         <v>150</v>
@@ -26102,7 +26105,7 @@
         <v>529</v>
       </c>
       <c r="Q421" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R421" s="15">
         <v>150</v>
@@ -26161,7 +26164,7 @@
         <v>529</v>
       </c>
       <c r="Q422" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R422" s="15">
         <v>150</v>
@@ -26220,7 +26223,7 @@
         <v>529</v>
       </c>
       <c r="Q423" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R423" s="15">
         <v>300</v>
@@ -26279,7 +26282,7 @@
         <v>529</v>
       </c>
       <c r="Q424" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R424" s="15">
         <v>300</v>
@@ -26338,7 +26341,7 @@
         <v>529</v>
       </c>
       <c r="Q425" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R425" s="15">
         <v>150</v>
@@ -26397,7 +26400,7 @@
         <v>529</v>
       </c>
       <c r="Q426" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R426" s="15">
         <v>300</v>
@@ -26456,7 +26459,7 @@
         <v>529</v>
       </c>
       <c r="Q427" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R427" s="15">
         <v>150</v>
@@ -26515,7 +26518,7 @@
         <v>529</v>
       </c>
       <c r="Q428" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R428" s="15">
         <v>150</v>
@@ -26574,7 +26577,7 @@
         <v>529</v>
       </c>
       <c r="Q429" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R429" s="15">
         <v>300</v>
@@ -26633,7 +26636,7 @@
         <v>529</v>
       </c>
       <c r="Q430" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R430" s="15">
         <v>150</v>
@@ -26692,7 +26695,7 @@
         <v>529</v>
       </c>
       <c r="Q431" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R431" s="15">
         <v>150</v>
@@ -26751,7 +26754,7 @@
         <v>529</v>
       </c>
       <c r="Q432" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R432" s="15">
         <v>150</v>
@@ -26810,7 +26813,7 @@
         <v>529</v>
       </c>
       <c r="Q433" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R433" s="15">
         <v>300</v>
@@ -26987,7 +26990,7 @@
         <v>529</v>
       </c>
       <c r="Q436" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R436" s="15">
         <v>300</v>
@@ -27046,7 +27049,7 @@
         <v>529</v>
       </c>
       <c r="Q437" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R437" s="15">
         <v>300</v>
@@ -27105,7 +27108,7 @@
         <v>529</v>
       </c>
       <c r="Q438" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R438" s="15">
         <v>750</v>
@@ -27164,7 +27167,7 @@
         <v>529</v>
       </c>
       <c r="Q439" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R439" s="15">
         <v>100</v>
@@ -27223,7 +27226,7 @@
         <v>529</v>
       </c>
       <c r="Q440" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R440" s="15">
         <v>100</v>
@@ -27282,7 +27285,7 @@
         <v>530</v>
       </c>
       <c r="Q441" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R441" s="15">
         <v>150</v>
@@ -27341,7 +27344,7 @@
         <v>530</v>
       </c>
       <c r="Q442" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R442" s="15">
         <v>300</v>
@@ -27400,7 +27403,7 @@
         <v>530</v>
       </c>
       <c r="Q443" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R443" s="15">
         <v>150</v>
@@ -27459,7 +27462,7 @@
         <v>530</v>
       </c>
       <c r="Q444" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R444" s="15">
         <v>150</v>
@@ -27518,7 +27521,7 @@
         <v>530</v>
       </c>
       <c r="Q445" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R445" s="15">
         <v>150</v>
@@ -27577,7 +27580,7 @@
         <v>530</v>
       </c>
       <c r="Q446" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R446" s="15">
         <v>400</v>
@@ -27695,7 +27698,7 @@
         <v>530</v>
       </c>
       <c r="Q448" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R448" s="15">
         <v>100</v>
@@ -27754,7 +27757,7 @@
         <v>530</v>
       </c>
       <c r="Q449" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R449" s="15">
         <v>100</v>
@@ -27813,7 +27816,7 @@
         <v>530</v>
       </c>
       <c r="Q450" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R450" s="15">
         <v>100</v>
@@ -27872,7 +27875,7 @@
         <v>530</v>
       </c>
       <c r="Q451" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R451" s="15">
         <v>100</v>
@@ -27931,7 +27934,7 @@
         <v>530</v>
       </c>
       <c r="Q452" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R452" s="15">
         <v>100</v>
@@ -27990,7 +27993,7 @@
         <v>530</v>
       </c>
       <c r="Q453" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R453" s="15">
         <v>100</v>
@@ -28049,7 +28052,7 @@
         <v>530</v>
       </c>
       <c r="Q454" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R454" s="15">
         <v>100</v>
@@ -28167,7 +28170,7 @@
         <v>530</v>
       </c>
       <c r="Q456" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R456" s="15">
         <v>100</v>
@@ -28226,7 +28229,7 @@
         <v>530</v>
       </c>
       <c r="Q457" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R457" s="15">
         <v>300</v>
@@ -28285,7 +28288,7 @@
         <v>530</v>
       </c>
       <c r="Q458" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R458" s="15">
         <v>100</v>
@@ -28344,7 +28347,7 @@
         <v>530</v>
       </c>
       <c r="Q459" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R459" s="15">
         <v>100</v>
@@ -28403,7 +28406,7 @@
         <v>530</v>
       </c>
       <c r="Q460" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R460" s="15">
         <v>100</v>
@@ -28462,7 +28465,7 @@
         <v>530</v>
       </c>
       <c r="Q461" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R461" s="15">
         <v>100</v>
@@ -28521,7 +28524,7 @@
         <v>530</v>
       </c>
       <c r="Q462" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R462" s="15">
         <v>100</v>
@@ -28580,7 +28583,7 @@
         <v>530</v>
       </c>
       <c r="Q463" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R463" s="15">
         <v>100</v>
@@ -28639,7 +28642,7 @@
         <v>530</v>
       </c>
       <c r="Q464" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R464" s="15">
         <v>100</v>
@@ -28698,7 +28701,7 @@
         <v>530</v>
       </c>
       <c r="Q465" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R465" s="15">
         <v>100</v>
@@ -28757,7 +28760,7 @@
         <v>530</v>
       </c>
       <c r="Q466" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R466" s="15">
         <v>100</v>
@@ -28816,7 +28819,7 @@
         <v>530</v>
       </c>
       <c r="Q467" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R467" s="15">
         <v>100</v>
@@ -28875,7 +28878,7 @@
         <v>530</v>
       </c>
       <c r="Q468" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R468" s="15">
         <v>100</v>
@@ -28934,7 +28937,7 @@
         <v>530</v>
       </c>
       <c r="Q469" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R469" s="15">
         <v>100</v>
@@ -28993,7 +28996,7 @@
         <v>530</v>
       </c>
       <c r="Q470" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R470" s="15">
         <v>100</v>
@@ -29052,7 +29055,7 @@
         <v>530</v>
       </c>
       <c r="Q471" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R471" s="15">
         <v>100</v>
@@ -29111,7 +29114,7 @@
         <v>530</v>
       </c>
       <c r="Q472" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R472" s="15">
         <v>100</v>
@@ -29170,7 +29173,7 @@
         <v>530</v>
       </c>
       <c r="Q473" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R473" s="15">
         <v>100</v>
@@ -29229,7 +29232,7 @@
         <v>530</v>
       </c>
       <c r="Q474" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R474" s="15">
         <v>100</v>
@@ -29288,7 +29291,7 @@
         <v>530</v>
       </c>
       <c r="Q475" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R475" s="15">
         <v>100</v>
@@ -29347,7 +29350,7 @@
         <v>529</v>
       </c>
       <c r="Q476" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R476" s="15">
         <v>100</v>
@@ -29406,7 +29409,7 @@
         <v>529</v>
       </c>
       <c r="Q477" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R477" s="15">
         <v>100</v>
@@ -29465,7 +29468,7 @@
         <v>529</v>
       </c>
       <c r="Q478" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R478" s="15">
         <v>100</v>
@@ -29524,7 +29527,7 @@
         <v>529</v>
       </c>
       <c r="Q479" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R479" s="15">
         <v>100</v>
@@ -29583,7 +29586,7 @@
         <v>530</v>
       </c>
       <c r="Q480" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R480" s="15">
         <v>100</v>
@@ -29642,7 +29645,7 @@
         <v>530</v>
       </c>
       <c r="Q481" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R481" s="15">
         <v>100</v>
@@ -29760,7 +29763,7 @@
         <v>530</v>
       </c>
       <c r="Q483" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R483" s="15">
         <v>50</v>
@@ -29819,7 +29822,7 @@
         <v>530</v>
       </c>
       <c r="Q484" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R484" s="15">
         <v>50</v>
@@ -29878,7 +29881,7 @@
         <v>530</v>
       </c>
       <c r="Q485" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R485" s="15">
         <v>100</v>
@@ -29937,7 +29940,7 @@
         <v>530</v>
       </c>
       <c r="Q486" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R486" s="15">
         <v>328</v>
@@ -29996,7 +29999,7 @@
         <v>530</v>
       </c>
       <c r="Q487" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R487" s="15">
         <v>370</v>
@@ -30055,7 +30058,7 @@
         <v>530</v>
       </c>
       <c r="Q488" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R488" s="15">
         <v>283</v>
@@ -30114,7 +30117,7 @@
         <v>530</v>
       </c>
       <c r="Q489" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R489" s="15">
         <v>209</v>
@@ -30173,7 +30176,7 @@
         <v>530</v>
       </c>
       <c r="Q490" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R490" s="15">
         <v>365</v>
@@ -30232,7 +30235,7 @@
         <v>530</v>
       </c>
       <c r="Q491" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R491" s="15">
         <v>382</v>
@@ -30291,7 +30294,7 @@
         <v>530</v>
       </c>
       <c r="Q492" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R492" s="15">
         <v>276</v>
@@ -30350,7 +30353,7 @@
         <v>530</v>
       </c>
       <c r="Q493" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R493" s="15">
         <v>372</v>
@@ -30409,7 +30412,7 @@
         <v>530</v>
       </c>
       <c r="Q494" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R494" s="15">
         <v>752</v>
@@ -30468,7 +30471,7 @@
         <v>532</v>
       </c>
       <c r="Q495" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R495" s="15">
         <v>106</v>
@@ -30527,7 +30530,7 @@
         <v>532</v>
       </c>
       <c r="Q496" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R496" s="15">
         <v>129</v>
@@ -30586,7 +30589,7 @@
         <v>532</v>
       </c>
       <c r="Q497" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R497" s="15">
         <v>192</v>
@@ -30645,7 +30648,7 @@
         <v>532</v>
       </c>
       <c r="Q498" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R498" s="15">
         <v>291</v>
@@ -30704,7 +30707,7 @@
         <v>532</v>
       </c>
       <c r="Q499" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R499" s="15">
         <v>306</v>
@@ -30763,7 +30766,7 @@
         <v>530</v>
       </c>
       <c r="Q500" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R500" s="15">
         <v>308</v>
@@ -30822,7 +30825,7 @@
         <v>532</v>
       </c>
       <c r="Q501" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R501" s="15">
         <v>377</v>
@@ -30881,7 +30884,7 @@
         <v>532</v>
       </c>
       <c r="Q502" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R502" s="15">
         <v>424</v>
@@ -30940,7 +30943,7 @@
         <v>532</v>
       </c>
       <c r="Q503" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="R503" s="15">
         <v>955</v>
@@ -30999,7 +31002,7 @@
         <v>532</v>
       </c>
       <c r="Q504" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R504" s="15">
         <v>431</v>
@@ -31058,7 +31061,7 @@
         <v>530</v>
       </c>
       <c r="Q505" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R505" s="15">
         <v>333</v>
@@ -31117,7 +31120,7 @@
         <v>530</v>
       </c>
       <c r="Q506" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R506" s="15">
         <v>463</v>
@@ -31176,7 +31179,7 @@
         <v>530</v>
       </c>
       <c r="Q507" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R507" s="15">
         <v>340</v>
@@ -31235,7 +31238,7 @@
         <v>530</v>
       </c>
       <c r="Q508" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R508" s="15">
         <v>503</v>
@@ -31294,7 +31297,7 @@
         <v>530</v>
       </c>
       <c r="Q509" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R509" s="15">
         <v>192</v>
@@ -31353,7 +31356,7 @@
         <v>530</v>
       </c>
       <c r="Q510" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R510" s="15">
         <v>163</v>
@@ -31412,7 +31415,7 @@
         <v>530</v>
       </c>
       <c r="Q511" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R511" s="15">
         <v>554</v>
@@ -31471,7 +31474,7 @@
         <v>530</v>
       </c>
       <c r="Q512" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R512" s="15">
         <v>448</v>
@@ -31530,7 +31533,7 @@
         <v>530</v>
       </c>
       <c r="Q513" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R513" s="15">
         <v>205</v>
@@ -31589,7 +31592,7 @@
         <v>530</v>
       </c>
       <c r="Q514" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R514" s="15">
         <v>426</v>
@@ -31648,7 +31651,7 @@
         <v>530</v>
       </c>
       <c r="Q515" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R515" s="15">
         <v>300</v>
@@ -31707,7 +31710,7 @@
         <v>530</v>
       </c>
       <c r="Q516" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R516" s="15">
         <v>567</v>
@@ -31766,7 +31769,7 @@
         <v>530</v>
       </c>
       <c r="Q517" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R517" s="15">
         <v>185</v>
@@ -31825,7 +31828,7 @@
         <v>530</v>
       </c>
       <c r="Q518" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R518" s="15">
         <v>207</v>
@@ -31884,7 +31887,7 @@
         <v>530</v>
       </c>
       <c r="Q519" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R519" s="15">
         <v>217</v>
@@ -31943,7 +31946,7 @@
         <v>530</v>
       </c>
       <c r="Q520" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R520" s="15">
         <v>234</v>
@@ -32002,7 +32005,7 @@
         <v>530</v>
       </c>
       <c r="Q521" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R521" s="15">
         <v>259</v>
@@ -32061,7 +32064,7 @@
         <v>530</v>
       </c>
       <c r="Q522" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R522" s="15">
         <v>407</v>
@@ -32120,7 +32123,7 @@
         <v>530</v>
       </c>
       <c r="Q523" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R523" s="15">
         <v>283</v>
@@ -32179,7 +32182,7 @@
         <v>530</v>
       </c>
       <c r="Q524" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R524" s="15">
         <v>266</v>
@@ -32238,7 +32241,7 @@
         <v>530</v>
       </c>
       <c r="Q525" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R525" s="15">
         <v>286</v>
@@ -32297,7 +32300,7 @@
         <v>530</v>
       </c>
       <c r="Q526" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R526" s="15">
         <v>296</v>
@@ -32356,7 +32359,7 @@
         <v>530</v>
       </c>
       <c r="Q527" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="R527" s="15">
         <v>759</v>
@@ -32415,7 +32418,7 @@
         <v>530</v>
       </c>
       <c r="Q528" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R528" s="15">
         <v>308</v>
@@ -32474,7 +32477,7 @@
         <v>530</v>
       </c>
       <c r="Q529" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R529" s="15">
         <v>505</v>
@@ -32533,7 +32536,7 @@
         <v>530</v>
       </c>
       <c r="Q530" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R530" s="15">
         <v>522</v>
@@ -32592,7 +32595,7 @@
         <v>530</v>
       </c>
       <c r="Q531" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R531" s="15">
         <v>481</v>
@@ -32651,7 +32654,7 @@
         <v>530</v>
       </c>
       <c r="Q532" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R532" s="15">
         <v>468</v>
@@ -32710,7 +32713,7 @@
         <v>530</v>
       </c>
       <c r="Q533" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R533" s="15">
         <v>611</v>
@@ -32769,7 +32772,7 @@
         <v>530</v>
       </c>
       <c r="Q534" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R534" s="15"/>
       <c r="S534" s="15">
@@ -32826,7 +32829,7 @@
         <v>530</v>
       </c>
       <c r="Q535" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R535" s="15"/>
       <c r="S535" s="15">
@@ -32883,7 +32886,7 @@
         <v>530</v>
       </c>
       <c r="Q536" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R536" s="15"/>
       <c r="S536" s="15">
@@ -32940,7 +32943,7 @@
         <v>530</v>
       </c>
       <c r="Q537" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R537" s="15"/>
       <c r="S537" s="15">
@@ -32997,7 +33000,7 @@
         <v>530</v>
       </c>
       <c r="Q538" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R538" s="15"/>
       <c r="S538" s="15">
@@ -33054,7 +33057,7 @@
         <v>530</v>
       </c>
       <c r="Q539" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R539" s="15"/>
       <c r="S539" s="15">
@@ -33111,7 +33114,7 @@
         <v>530</v>
       </c>
       <c r="Q540" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R540" s="15"/>
       <c r="S540" s="15">
@@ -33168,7 +33171,7 @@
         <v>530</v>
       </c>
       <c r="Q541" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R541" s="15"/>
       <c r="S541" s="15">
@@ -33225,7 +33228,7 @@
         <v>530</v>
       </c>
       <c r="Q542" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R542" s="15">
         <v>300</v>
@@ -33284,7 +33287,7 @@
         <v>530</v>
       </c>
       <c r="Q543" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R543" s="15"/>
       <c r="S543" s="15"/>
@@ -33339,7 +33342,7 @@
         <v>530</v>
       </c>
       <c r="Q544" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R544" s="15"/>
       <c r="S544" s="15"/>
@@ -33504,7 +33507,7 @@
         <v>530</v>
       </c>
       <c r="Q547" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R547" s="15"/>
       <c r="S547" s="15"/>
@@ -33559,7 +33562,7 @@
         <v>530</v>
       </c>
       <c r="Q548" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R548" s="15"/>
       <c r="S548" s="15"/>
@@ -33614,7 +33617,7 @@
         <v>530</v>
       </c>
       <c r="Q549" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R549" s="15"/>
       <c r="S549" s="15"/>
@@ -33669,7 +33672,7 @@
         <v>530</v>
       </c>
       <c r="Q550" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R550" s="15"/>
       <c r="S550" s="15"/>
@@ -33724,7 +33727,7 @@
         <v>530</v>
       </c>
       <c r="Q551" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="R551" s="15"/>
       <c r="S551" s="15"/>
@@ -33889,7 +33892,7 @@
         <v>530</v>
       </c>
       <c r="Q554" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R554" s="15"/>
       <c r="S554" s="15">
